--- a/data/om_costs/IPTDS O&M Costs 20240710.xlsx
+++ b/data/om_costs/IPTDS O&M Costs 20240710.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeRiverIPTDS\data\om_costs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1AD776-4AB7-4B3A-AEBB-DB908D29E784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AB9CD2-9F7B-4B59-B4E1-FC3E6E6C2842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="O&amp;M Costs" sheetId="1" r:id="rId1"/>
@@ -1966,7 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2140,7 +2140,7 @@
         <v>123</v>
       </c>
       <c r="J2" s="30" t="str">
-        <f>VLOOKUP(A2,om_table,23,FALSE)</f>
+        <f t="shared" ref="J2:J26" si="0">VLOOKUP(A2,om_table,23,FALSE)</f>
         <v>Cellular Modem</v>
       </c>
       <c r="K2" s="30" t="str">
@@ -2148,55 +2148,55 @@
         <v>BioProbe3</v>
       </c>
       <c r="L2" s="30" t="str">
-        <f>VLOOKUP(A2,om_table,20,FALSE)</f>
+        <f t="shared" ref="L2:L26" si="1">VLOOKUP(A2,om_table,20,FALSE)</f>
         <v>IS1001-MTS</v>
       </c>
       <c r="M2" s="80" t="str">
-        <f>VLOOKUP(A2,om_table,21,FALSE)</f>
+        <f t="shared" ref="M2:M26" si="2">VLOOKUP(A2,om_table,21,FALSE)</f>
         <v>Biomark IS1001</v>
       </c>
       <c r="N2" s="29">
-        <f>VLOOKUP(A2,om_table,30,FALSE)</f>
+        <f t="shared" ref="N2:N26" si="3">VLOOKUP(A2,om_table,30,FALSE)</f>
         <v>6</v>
       </c>
       <c r="O2" s="30" t="str">
-        <f>VLOOKUP(A2,om_table,9,FALSE)</f>
+        <f t="shared" ref="O2:O26" si="4">VLOOKUP(A2,om_table,9,FALSE)</f>
         <v>5120 TEG</v>
       </c>
       <c r="P2" s="29">
-        <f>VLOOKUP(A2,om_table,16,FALSE)</f>
+        <f t="shared" ref="P2:P26" si="5">VLOOKUP(A2,om_table,16,FALSE)</f>
         <v>4</v>
       </c>
       <c r="Q2" s="29">
-        <f>VLOOKUP(A2,om_table,17,FALSE)</f>
+        <f t="shared" ref="Q2:Q26" si="6">VLOOKUP(A2,om_table,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R2" s="32">
-        <f t="shared" ref="R2:R33" si="0">VLOOKUP(J2,communication,2,FALSE)</f>
+        <f t="shared" ref="R2:R33" si="7">VLOOKUP(J2,communication,2,FALSE)</f>
         <v>742</v>
       </c>
       <c r="S2" s="32">
-        <f t="shared" ref="S2:S33" si="1">IFERROR(VLOOKUP(K2,datalogger,2,FALSE),0)</f>
+        <f t="shared" ref="S2:S33" si="8">IFERROR(VLOOKUP(K2,datalogger,2,FALSE),0)</f>
         <v>835</v>
       </c>
       <c r="T2" s="32">
-        <f t="shared" ref="T2:T33" si="2">IFERROR(VLOOKUP(L2,transceiver,2,FALSE),0)</f>
+        <f t="shared" ref="T2:T33" si="9">IFERROR(VLOOKUP(L2,transceiver,2,FALSE),0)</f>
         <v>4450</v>
       </c>
       <c r="U2" s="32">
-        <f t="shared" ref="U2:U33" si="3">VLOOKUP(M2,reader,2,FALSE)*N2</f>
+        <f t="shared" ref="U2:U33" si="10">VLOOKUP(M2,reader,2,FALSE)*N2</f>
         <v>12504</v>
       </c>
       <c r="V2" s="32">
-        <f t="shared" ref="V2:V33" si="4">N2*antenna_cost</f>
+        <f t="shared" ref="V2:V33" si="11">N2*antenna_cost</f>
         <v>17610</v>
       </c>
       <c r="W2" s="32">
-        <f>_xlfn.IFS(O2="Grid Power", 2550, O2="Grid Power PLC", 3940, O2="5060 Hybrid TEG", 27903, O2="5060 TEG", 10479, O2="5120 TEG", 13874, O2="Solar", solar_array_cost*Q2)+(P2*battery_cost)</f>
+        <f t="shared" ref="W2:W33" si="12">_xlfn.IFS(O2="Grid Power", 2550, O2="Grid Power PLC", 3940, O2="5060 Hybrid TEG", 27903, O2="5060 TEG", 10479, O2="5120 TEG", 13874, O2="Solar", solar_array_cost*Q2)+(P2*battery_cost)</f>
         <v>15274</v>
       </c>
       <c r="X2" s="32">
-        <f t="shared" ref="X2:X26" si="5">VLOOKUP(A2,om_table,40,FALSE)</f>
+        <f t="shared" ref="X2:X26" si="13">VLOOKUP(A2,om_table,40,FALSE)</f>
         <v>12500</v>
       </c>
       <c r="Y2" s="33">
@@ -2204,7 +2204,7 @@
         <v>63915</v>
       </c>
       <c r="Z2" s="58">
-        <f t="shared" ref="Z2:Z26" si="6">VLOOKUP(A2,om_table,48,FALSE)</f>
+        <f t="shared" ref="Z2:Z26" si="14">VLOOKUP(A2,om_table,48,FALSE)</f>
         <v>0.08</v>
       </c>
       <c r="AA2" s="33">
@@ -2212,23 +2212,23 @@
         <v>5113.2</v>
       </c>
       <c r="AB2" s="34">
-        <f t="shared" ref="AB2:AB33" si="7">(P2*battery_replacement)/4</f>
+        <f t="shared" ref="AB2:AB33" si="15">(P2*battery_replacement)/4</f>
         <v>364</v>
       </c>
       <c r="AC2" s="34">
-        <f t="shared" ref="AC2:AC33" si="8">VLOOKUP(J2,communication,3,FALSE)</f>
+        <f t="shared" ref="AC2:AC33" si="16">VLOOKUP(J2,communication,3,FALSE)</f>
         <v>300</v>
       </c>
       <c r="AD2" s="34">
-        <f>VLOOKUP(O2,power,3,FALSE)</f>
+        <f t="shared" ref="AD2:AD33" si="17">VLOOKUP(O2,power,3,FALSE)</f>
         <v>3120.75</v>
       </c>
       <c r="AE2" s="34">
-        <f t="shared" ref="AE2:AE33" si="9">data_management_mnth*12</f>
+        <f t="shared" ref="AE2:AE33" si="18">data_management_mnth*12</f>
         <v>1080</v>
       </c>
       <c r="AF2" s="35">
-        <f t="shared" ref="AF2:AF4" si="10">SUM(AB2:AE2)</f>
+        <f t="shared" ref="AF2:AF4" si="19">SUM(AB2:AE2)</f>
         <v>4864.75</v>
       </c>
       <c r="AG2" s="36">
@@ -2265,7 +2265,7 @@
         <v>123</v>
       </c>
       <c r="J3" s="30" t="str">
-        <f>VLOOKUP(A3,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Cellular Modem</v>
       </c>
       <c r="K3" s="30" t="str">
@@ -2273,91 +2273,91 @@
         <v>BioProbe3</v>
       </c>
       <c r="L3" s="30" t="str">
-        <f>VLOOKUP(A3,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>IS1001-MTS</v>
       </c>
       <c r="M3" s="80" t="str">
-        <f>VLOOKUP(A3,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N3" s="29">
-        <f>VLOOKUP(A3,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O3" s="30" t="str">
-        <f>VLOOKUP(A3,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Grid Power</v>
       </c>
       <c r="P3" s="29">
-        <f>VLOOKUP(A3,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q3" s="29">
-        <f>VLOOKUP(A3,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R3" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>742</v>
       </c>
       <c r="S3" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T3" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U3" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>12504</v>
       </c>
       <c r="V3" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17610</v>
       </c>
       <c r="W3" s="32">
-        <f>_xlfn.IFS(O3="Grid Power", 2550, O3="Grid Power PLC", 3940, O3="5060 Hybrid TEG", 27903, O3="5060 TEG", 10479, O3="5120 TEG", 13874, O3="Solar", solar_array_cost*Q3)+(P3*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>3950</v>
       </c>
       <c r="X3" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y3" s="33">
-        <f t="shared" ref="Y3:Y52" si="11">SUM(R3:X3)</f>
+        <f t="shared" ref="Y3:Y52" si="20">SUM(R3:X3)</f>
         <v>52591</v>
       </c>
       <c r="Z3" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
       <c r="AA3" s="33">
-        <f t="shared" ref="AA3:AA52" si="12">Y3*Z3</f>
+        <f t="shared" ref="AA3:AA52" si="21">Y3*Z3</f>
         <v>4207.28</v>
       </c>
       <c r="AB3" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC3" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>300</v>
       </c>
       <c r="AD3" s="34">
-        <f>VLOOKUP(O3,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE3" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF3" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1864</v>
       </c>
       <c r="AG3" s="36">
-        <f t="shared" ref="AG3:AG52" si="13">AF3+AA3</f>
+        <f t="shared" ref="AG3:AG52" si="22">AF3+AA3</f>
         <v>6071.28</v>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
         <v>123</v>
       </c>
       <c r="J4" s="30" t="str">
-        <f>VLOOKUP(A4,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Cellular Modem</v>
       </c>
       <c r="K4" s="30" t="str">
@@ -2398,91 +2398,91 @@
         <v>BioProbe3</v>
       </c>
       <c r="L4" s="30" t="str">
-        <f>VLOOKUP(A4,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>IS1001-MTS</v>
       </c>
       <c r="M4" s="80" t="str">
-        <f>VLOOKUP(A4,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N4" s="29">
-        <f>VLOOKUP(A4,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O4" s="30" t="str">
-        <f>VLOOKUP(A4,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Grid Power</v>
       </c>
       <c r="P4" s="29">
-        <f>VLOOKUP(A4,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q4" s="29">
-        <f>VLOOKUP(A4,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R4" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>742</v>
       </c>
       <c r="S4" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T4" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U4" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>8336</v>
       </c>
       <c r="V4" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11740</v>
       </c>
       <c r="W4" s="32">
-        <f>_xlfn.IFS(O4="Grid Power", 2550, O4="Grid Power PLC", 3940, O4="5060 Hybrid TEG", 27903, O4="5060 TEG", 10479, O4="5120 TEG", 13874, O4="Solar", solar_array_cost*Q4)+(P4*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>3950</v>
       </c>
       <c r="X4" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y4" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>42553</v>
       </c>
       <c r="Z4" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
       <c r="AA4" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3404.2400000000002</v>
       </c>
       <c r="AB4" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC4" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>300</v>
       </c>
       <c r="AD4" s="34">
-        <f>VLOOKUP(O4,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE4" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF4" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1864</v>
       </c>
       <c r="AG4" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>5268.24</v>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
         <v>123</v>
       </c>
       <c r="J5" s="30" t="str">
-        <f>VLOOKUP(A5,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>None</v>
       </c>
       <c r="K5" s="30" t="str">
@@ -2523,83 +2523,83 @@
         <v>BioProbe3</v>
       </c>
       <c r="L5" s="30" t="str">
-        <f>VLOOKUP(A5,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M5" s="80" t="str">
-        <f>VLOOKUP(A5,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N5" s="29">
-        <f>VLOOKUP(A5,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O5" s="30" t="str">
-        <f>VLOOKUP(A5,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Grid Power</v>
       </c>
       <c r="P5" s="29">
-        <f>VLOOKUP(A5,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q5" s="29">
-        <f>VLOOKUP(A5,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R5" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S5" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T5" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U5" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V5" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17610</v>
       </c>
       <c r="W5" s="32">
-        <f>_xlfn.IFS(O5="Grid Power", 2550, O5="Grid Power PLC", 3940, O5="5060 Hybrid TEG", 27903, O5="5060 TEG", 10479, O5="5120 TEG", 13874, O5="Solar", solar_array_cost*Q5)+(P5*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>3950</v>
       </c>
       <c r="X5" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y5" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>43395</v>
       </c>
       <c r="Z5" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA5" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4339.5</v>
       </c>
       <c r="AB5" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC5" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD5" s="34">
-        <f>VLOOKUP(O5,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE5" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF5" s="35">
@@ -2607,7 +2607,7 @@
         <v>1564</v>
       </c>
       <c r="AG5" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>5903.5</v>
       </c>
     </row>
@@ -2640,95 +2640,95 @@
         <v>123</v>
       </c>
       <c r="J6" s="30" t="str">
-        <f>VLOOKUP(A6,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="L6" s="30" t="str">
-        <f>VLOOKUP(A6,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>IS1001-MTS</v>
       </c>
       <c r="M6" s="80" t="str">
-        <f>VLOOKUP(A6,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N6" s="29">
-        <f>VLOOKUP(A6,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O6" s="30" t="str">
-        <f>VLOOKUP(A6,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Grid Power</v>
       </c>
       <c r="P6" s="29">
-        <f>VLOOKUP(A6,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q6" s="29">
-        <f>VLOOKUP(A6,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R6" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T6" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U6" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>12504</v>
       </c>
       <c r="V6" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17610</v>
       </c>
       <c r="W6" s="32">
-        <f>_xlfn.IFS(O6="Grid Power", 2550, O6="Grid Power PLC", 3940, O6="5060 Hybrid TEG", 27903, O6="5060 TEG", 10479, O6="5120 TEG", 13874, O6="Solar", solar_array_cost*Q6)+(P6*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>3950</v>
       </c>
       <c r="X6" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y6" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>53014</v>
       </c>
       <c r="Z6" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
       <c r="AA6" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4241.12</v>
       </c>
       <c r="AB6" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC6" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD6" s="34">
-        <f>VLOOKUP(O6,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE6" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF6" s="35">
-        <f t="shared" ref="AF6:AF52" si="14">SUM(AB6:AE6)</f>
+        <f t="shared" ref="AF6:AF52" si="23">SUM(AB6:AE6)</f>
         <v>3004</v>
       </c>
       <c r="AG6" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>7245.12</v>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
         <v>123</v>
       </c>
       <c r="J7" s="30" t="str">
-        <f>VLOOKUP(A7,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Cellular Modem</v>
       </c>
       <c r="K7" s="30" t="str">
@@ -2769,91 +2769,91 @@
         <v>BioProbe3</v>
       </c>
       <c r="L7" s="30" t="str">
-        <f>VLOOKUP(A7,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M7" s="80" t="str">
-        <f>VLOOKUP(A7,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N7" s="29">
-        <f>VLOOKUP(A7,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O7" s="30" t="str">
-        <f>VLOOKUP(A7,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5060 TEG</v>
       </c>
       <c r="P7" s="29">
-        <f>VLOOKUP(A7,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q7" s="29">
-        <f>VLOOKUP(A7,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R7" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>742</v>
       </c>
       <c r="S7" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T7" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U7" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V7" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17610</v>
       </c>
       <c r="W7" s="32">
-        <f>_xlfn.IFS(O7="Grid Power", 2550, O7="Grid Power PLC", 3940, O7="5060 Hybrid TEG", 27903, O7="5060 TEG", 10479, O7="5120 TEG", 13874, O7="Solar", solar_array_cost*Q7)+(P7*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>10479</v>
       </c>
       <c r="X7" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y7" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>50666</v>
       </c>
       <c r="Z7" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA7" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>5066.6000000000004</v>
       </c>
       <c r="AB7" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC7" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>300</v>
       </c>
       <c r="AD7" s="34">
-        <f>VLOOKUP(O7,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>1560.38</v>
       </c>
       <c r="AE7" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF7" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2940.38</v>
       </c>
       <c r="AG7" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>8006.9800000000005</v>
       </c>
     </row>
@@ -2886,95 +2886,95 @@
         <v>123</v>
       </c>
       <c r="J8" s="30" t="str">
-        <f>VLOOKUP(A8,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="L8" s="30" t="str">
-        <f>VLOOKUP(A8,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>IS1001-MTS</v>
       </c>
       <c r="M8" s="80" t="str">
-        <f>VLOOKUP(A8,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N8" s="29">
-        <f>VLOOKUP(A8,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="O8" s="30" t="str">
-        <f>VLOOKUP(A8,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5120 TEG</v>
       </c>
       <c r="P8" s="29">
-        <f>VLOOKUP(A8,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q8" s="29">
-        <f>VLOOKUP(A8,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R8" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S8" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T8" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U8" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>16672</v>
       </c>
       <c r="V8" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>23480</v>
       </c>
       <c r="W8" s="32">
-        <f>_xlfn.IFS(O8="Grid Power", 2550, O8="Grid Power PLC", 3940, O8="5060 Hybrid TEG", 27903, O8="5060 TEG", 10479, O8="5120 TEG", 13874, O8="Solar", solar_array_cost*Q8)+(P8*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>13874</v>
       </c>
       <c r="X8" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y8" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>72976</v>
       </c>
       <c r="Z8" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
       <c r="AA8" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>5838.08</v>
       </c>
       <c r="AB8" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC8" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD8" s="34">
-        <f>VLOOKUP(O8,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>3120.75</v>
       </c>
       <c r="AE8" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF8" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>5640.75</v>
       </c>
       <c r="AG8" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>11478.83</v>
       </c>
     </row>
@@ -3007,99 +3007,99 @@
         <v>123</v>
       </c>
       <c r="J9" s="30" t="str">
-        <f>VLOOKUP(A9,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K9" s="30" t="str">
-        <f>VLOOKUP(A9,om_table,22,FALSE)</f>
+        <f t="shared" ref="K9:K26" si="24">VLOOKUP(A9,om_table,22,FALSE)</f>
         <v>BioProbe3</v>
       </c>
       <c r="L9" s="30" t="str">
-        <f>VLOOKUP(A9,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>IS1001-MTS</v>
       </c>
       <c r="M9" s="80" t="str">
-        <f>VLOOKUP(A9,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N9" s="29">
-        <f>VLOOKUP(A9,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="O9" s="30" t="str">
-        <f>VLOOKUP(A9,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Solar</v>
       </c>
       <c r="P9" s="29">
-        <f>VLOOKUP(A9,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="Q9" s="29">
-        <f>VLOOKUP(A9,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="R9" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S9" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T9" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U9" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25008</v>
       </c>
       <c r="V9" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>35220</v>
       </c>
       <c r="W9" s="32">
-        <f>_xlfn.IFS(O9="Grid Power", 2550, O9="Grid Power PLC", 3940, O9="5060 Hybrid TEG", 27903, O9="5060 TEG", 10479, O9="5120 TEG", 13874, O9="Solar", solar_array_cost*Q9)+(P9*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>51696</v>
       </c>
       <c r="X9" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y9" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>131709</v>
       </c>
       <c r="Z9" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
       <c r="AA9" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>10536.72</v>
       </c>
       <c r="AB9" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2184</v>
       </c>
       <c r="AC9" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD9" s="34">
-        <f>VLOOKUP(O9,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE9" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF9" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4704</v>
       </c>
       <c r="AG9" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>15240.72</v>
       </c>
     </row>
@@ -3132,99 +3132,99 @@
         <v>123</v>
       </c>
       <c r="J10" s="30" t="str">
-        <f>VLOOKUP(A10,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K10" s="30" t="str">
-        <f>VLOOKUP(A10,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L10" s="30" t="str">
-        <f>VLOOKUP(A10,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M10" s="80" t="str">
-        <f>VLOOKUP(A10,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N10" s="29">
-        <f>VLOOKUP(A10,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O10" s="30" t="str">
-        <f>VLOOKUP(A10,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5060 TEG</v>
       </c>
       <c r="P10" s="29">
-        <f>VLOOKUP(A10,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q10" s="29">
-        <f>VLOOKUP(A10,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R10" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S10" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T10" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U10" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V10" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11740</v>
       </c>
       <c r="W10" s="32">
-        <f>_xlfn.IFS(O10="Grid Power", 2550, O10="Grid Power PLC", 3940, O10="5060 Hybrid TEG", 27903, O10="5060 TEG", 10479, O10="5120 TEG", 13874, O10="Solar", solar_array_cost*Q10)+(P10*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>10479</v>
       </c>
       <c r="X10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y10" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>46054</v>
       </c>
       <c r="Z10" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA10" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4605.4000000000005</v>
       </c>
       <c r="AB10" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC10" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD10" s="34">
-        <f>VLOOKUP(O10,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>1560.38</v>
       </c>
       <c r="AE10" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF10" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4080.38</v>
       </c>
       <c r="AG10" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>8685.7800000000007</v>
       </c>
     </row>
@@ -3257,99 +3257,99 @@
         <v>123</v>
       </c>
       <c r="J11" s="30" t="str">
-        <f>VLOOKUP(A11,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f>VLOOKUP(A11,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L11" s="30" t="str">
-        <f>VLOOKUP(A11,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M11" s="80" t="str">
-        <f>VLOOKUP(A11,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N11" s="29">
-        <f>VLOOKUP(A11,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f>VLOOKUP(A11,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5060 TEG</v>
       </c>
       <c r="P11" s="29">
-        <f>VLOOKUP(A11,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q11" s="29">
-        <f>VLOOKUP(A11,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R11" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S11" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T11" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U11" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V11" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11740</v>
       </c>
       <c r="W11" s="32">
-        <f>_xlfn.IFS(O11="Grid Power", 2550, O11="Grid Power PLC", 3940, O11="5060 Hybrid TEG", 27903, O11="5060 TEG", 10479, O11="5120 TEG", 13874, O11="Solar", solar_array_cost*Q11)+(P11*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>10479</v>
       </c>
       <c r="X11" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y11" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>46054</v>
       </c>
       <c r="Z11" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA11" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4605.4000000000005</v>
       </c>
       <c r="AB11" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC11" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD11" s="34">
-        <f>VLOOKUP(O11,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>1560.38</v>
       </c>
       <c r="AE11" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF11" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4080.38</v>
       </c>
       <c r="AG11" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>8685.7800000000007</v>
       </c>
     </row>
@@ -3382,99 +3382,99 @@
         <v>123</v>
       </c>
       <c r="J12" s="30" t="str">
-        <f>VLOOKUP(A12,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K12" s="30" t="str">
-        <f>VLOOKUP(A12,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L12" s="30" t="str">
-        <f>VLOOKUP(A12,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M12" s="80" t="str">
-        <f>VLOOKUP(A12,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N12" s="29">
-        <f>VLOOKUP(A12,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O12" s="30" t="str">
-        <f>VLOOKUP(A12,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5060 TEG</v>
       </c>
       <c r="P12" s="29">
-        <f>VLOOKUP(A12,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q12" s="29">
-        <f>VLOOKUP(A12,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R12" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S12" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T12" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U12" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V12" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17610</v>
       </c>
       <c r="W12" s="32">
-        <f>_xlfn.IFS(O12="Grid Power", 2550, O12="Grid Power PLC", 3940, O12="5060 Hybrid TEG", 27903, O12="5060 TEG", 10479, O12="5120 TEG", 13874, O12="Solar", solar_array_cost*Q12)+(P12*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>11879</v>
       </c>
       <c r="X12" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y12" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>53324</v>
       </c>
       <c r="Z12" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA12" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>5332.4000000000005</v>
       </c>
       <c r="AB12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC12" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD12" s="34">
-        <f>VLOOKUP(O12,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>1560.38</v>
       </c>
       <c r="AE12" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF12" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4444.38</v>
       </c>
       <c r="AG12" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>9776.7800000000007</v>
       </c>
     </row>
@@ -3507,99 +3507,99 @@
         <v>123</v>
       </c>
       <c r="J13" s="30" t="str">
-        <f>VLOOKUP(A13,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K13" s="30" t="str">
-        <f>VLOOKUP(A13,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L13" s="30" t="str">
-        <f>VLOOKUP(A13,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M13" s="80" t="str">
-        <f>VLOOKUP(A13,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N13" s="29">
-        <f>VLOOKUP(A13,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O13" s="30" t="str">
-        <f>VLOOKUP(A13,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5060 TEG</v>
       </c>
       <c r="P13" s="29">
-        <f>VLOOKUP(A13,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q13" s="29">
-        <f>VLOOKUP(A13,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R13" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S13" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T13" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U13" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V13" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11740</v>
       </c>
       <c r="W13" s="32">
-        <f>_xlfn.IFS(O13="Grid Power", 2550, O13="Grid Power PLC", 3940, O13="5060 Hybrid TEG", 27903, O13="5060 TEG", 10479, O13="5120 TEG", 13874, O13="Solar", solar_array_cost*Q13)+(P13*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>11879</v>
       </c>
       <c r="X13" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y13" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>47454</v>
       </c>
       <c r="Z13" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA13" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4745.4000000000005</v>
       </c>
       <c r="AB13" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC13" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD13" s="34">
-        <f>VLOOKUP(O13,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>1560.38</v>
       </c>
       <c r="AE13" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF13" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4444.38</v>
       </c>
       <c r="AG13" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>9189.7800000000007</v>
       </c>
     </row>
@@ -3632,99 +3632,99 @@
         <v>123</v>
       </c>
       <c r="J14" s="30" t="str">
-        <f>VLOOKUP(A14,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K14" s="30" t="str">
-        <f>VLOOKUP(A14,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L14" s="30" t="str">
-        <f>VLOOKUP(A14,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>IS1001-MTS</v>
       </c>
       <c r="M14" s="80" t="str">
-        <f>VLOOKUP(A14,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N14" s="29">
-        <f>VLOOKUP(A14,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="O14" s="30" t="str">
-        <f>VLOOKUP(A14,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5120 TEG</v>
       </c>
       <c r="P14" s="29">
-        <f>VLOOKUP(A14,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q14" s="29">
-        <f>VLOOKUP(A14,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R14" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S14" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T14" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U14" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>20840</v>
       </c>
       <c r="V14" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>29350</v>
       </c>
       <c r="W14" s="32">
-        <f>_xlfn.IFS(O14="Grid Power", 2550, O14="Grid Power PLC", 3940, O14="5060 Hybrid TEG", 27903, O14="5060 TEG", 10479, O14="5120 TEG", 13874, O14="Solar", solar_array_cost*Q14)+(P14*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>13874</v>
       </c>
       <c r="X14" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y14" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>83849</v>
       </c>
       <c r="Z14" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
       <c r="AA14" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>6707.92</v>
       </c>
       <c r="AB14" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC14" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD14" s="34">
-        <f>VLOOKUP(O14,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>3120.75</v>
       </c>
       <c r="AE14" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF14" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>5640.75</v>
       </c>
       <c r="AG14" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>12348.67</v>
       </c>
     </row>
@@ -3757,99 +3757,99 @@
         <v>123</v>
       </c>
       <c r="J15" s="30" t="str">
-        <f>VLOOKUP(A15,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K15" s="30" t="str">
-        <f>VLOOKUP(A15,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L15" s="30" t="str">
-        <f>VLOOKUP(A15,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>IS1001-MTS</v>
       </c>
       <c r="M15" s="80" t="str">
-        <f>VLOOKUP(A15,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N15" s="29">
-        <f>VLOOKUP(A15,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="O15" s="30" t="str">
-        <f>VLOOKUP(A15,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Grid Power PLC</v>
       </c>
       <c r="P15" s="29">
-        <f>VLOOKUP(A15,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q15" s="29">
-        <f>VLOOKUP(A15,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R15" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S15" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T15" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U15" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>27092</v>
       </c>
       <c r="V15" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>38155</v>
       </c>
       <c r="W15" s="32">
-        <f>_xlfn.IFS(O15="Grid Power", 2550, O15="Grid Power PLC", 3940, O15="5060 Hybrid TEG", 27903, O15="5060 TEG", 10479, O15="5120 TEG", 13874, O15="Solar", solar_array_cost*Q15)+(P15*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>5340</v>
       </c>
       <c r="X15" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y15" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>90372</v>
       </c>
       <c r="Z15" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
       <c r="AA15" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>7229.76</v>
       </c>
       <c r="AB15" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC15" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD15" s="34">
-        <f>VLOOKUP(O15,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE15" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF15" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3004</v>
       </c>
       <c r="AG15" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>10233.76</v>
       </c>
     </row>
@@ -3882,99 +3882,99 @@
         <v>123</v>
       </c>
       <c r="J16" s="30" t="str">
-        <f>VLOOKUP(A16,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K16" s="30" t="str">
-        <f>VLOOKUP(A16,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L16" s="30" t="str">
-        <f>VLOOKUP(A16,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>IS1001-MTS</v>
       </c>
       <c r="M16" s="80" t="str">
-        <f>VLOOKUP(A16,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N16" s="29">
-        <f>VLOOKUP(A16,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="O16" s="30" t="str">
-        <f>VLOOKUP(A16,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Grid Power PLC</v>
       </c>
       <c r="P16" s="29">
-        <f>VLOOKUP(A16,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q16" s="29">
-        <f>VLOOKUP(A16,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R16" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S16" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T16" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U16" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>39596</v>
       </c>
       <c r="V16" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>55765</v>
       </c>
       <c r="W16" s="32">
-        <f>_xlfn.IFS(O16="Grid Power", 2550, O16="Grid Power PLC", 3940, O16="5060 Hybrid TEG", 27903, O16="5060 TEG", 10479, O16="5120 TEG", 13874, O16="Solar", solar_array_cost*Q16)+(P16*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>5340</v>
       </c>
       <c r="X16" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y16" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>120486</v>
       </c>
       <c r="Z16" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
       <c r="AA16" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>9638.880000000001</v>
       </c>
       <c r="AB16" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD16" s="34">
-        <f>VLOOKUP(O16,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE16" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF16" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3004</v>
       </c>
       <c r="AG16" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>12642.880000000001</v>
       </c>
     </row>
@@ -4007,99 +4007,99 @@
         <v>123</v>
       </c>
       <c r="J17" s="30" t="str">
-        <f>VLOOKUP(A17,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Cellular Modem</v>
       </c>
       <c r="K17" s="30" t="str">
-        <f>VLOOKUP(A17,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L17" s="30" t="str">
-        <f>VLOOKUP(A17,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>IS1001-MTS</v>
       </c>
       <c r="M17" s="80" t="str">
-        <f>VLOOKUP(A17,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N17" s="29">
-        <f>VLOOKUP(A17,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="O17" s="30" t="str">
-        <f>VLOOKUP(A17,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Grid Power</v>
       </c>
       <c r="P17" s="29">
-        <f>VLOOKUP(A17,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q17" s="29">
-        <f>VLOOKUP(A17,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R17" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>742</v>
       </c>
       <c r="S17" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T17" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U17" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>14588</v>
       </c>
       <c r="V17" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>20545</v>
       </c>
       <c r="W17" s="32">
-        <f>_xlfn.IFS(O17="Grid Power", 2550, O17="Grid Power PLC", 3940, O17="5060 Hybrid TEG", 27903, O17="5060 TEG", 10479, O17="5120 TEG", 13874, O17="Solar", solar_array_cost*Q17)+(P17*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>3950</v>
       </c>
       <c r="X17" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y17" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>57610</v>
       </c>
       <c r="Z17" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
       <c r="AA17" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4608.8</v>
       </c>
       <c r="AB17" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC17" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>300</v>
       </c>
       <c r="AD17" s="34">
-        <f>VLOOKUP(O17,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE17" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF17" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1864</v>
       </c>
       <c r="AG17" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>6472.8</v>
       </c>
     </row>
@@ -4132,99 +4132,99 @@
         <v>123</v>
       </c>
       <c r="J18" s="30" t="str">
-        <f>VLOOKUP(A18,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Cellular Modem</v>
       </c>
       <c r="K18" s="30" t="str">
-        <f>VLOOKUP(A18,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L18" s="30" t="str">
-        <f>VLOOKUP(A18,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M18" s="80" t="str">
-        <f>VLOOKUP(A18,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N18" s="29">
-        <f>VLOOKUP(A18,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O18" s="30" t="str">
-        <f>VLOOKUP(A18,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Grid Power</v>
       </c>
       <c r="P18" s="29">
-        <f>VLOOKUP(A18,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q18" s="29">
-        <f>VLOOKUP(A18,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R18" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>742</v>
       </c>
       <c r="S18" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T18" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U18" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V18" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17610</v>
       </c>
       <c r="W18" s="32">
-        <f>_xlfn.IFS(O18="Grid Power", 2550, O18="Grid Power PLC", 3940, O18="5060 Hybrid TEG", 27903, O18="5060 TEG", 10479, O18="5120 TEG", 13874, O18="Solar", solar_array_cost*Q18)+(P18*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>3950</v>
       </c>
       <c r="X18" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y18" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>44137</v>
       </c>
       <c r="Z18" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA18" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4413.7</v>
       </c>
       <c r="AB18" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC18" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>300</v>
       </c>
       <c r="AD18" s="34">
-        <f>VLOOKUP(O18,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE18" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF18" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1864</v>
       </c>
       <c r="AG18" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>6277.7</v>
       </c>
     </row>
@@ -4257,99 +4257,99 @@
         <v>123</v>
       </c>
       <c r="J19" s="30" t="str">
-        <f>VLOOKUP(A19,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K19" s="30" t="str">
-        <f>VLOOKUP(A19,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L19" s="30" t="str">
-        <f>VLOOKUP(A19,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M19" s="80" t="str">
-        <f>VLOOKUP(A19,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N19" s="29">
-        <f>VLOOKUP(A19,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O19" s="30" t="str">
-        <f>VLOOKUP(A19,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Grid Power</v>
       </c>
       <c r="P19" s="29">
-        <f>VLOOKUP(A19,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q19" s="29">
-        <f>VLOOKUP(A19,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R19" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S19" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T19" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U19" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V19" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11740</v>
       </c>
       <c r="W19" s="32">
-        <f>_xlfn.IFS(O19="Grid Power", 2550, O19="Grid Power PLC", 3940, O19="5060 Hybrid TEG", 27903, O19="5060 TEG", 10479, O19="5120 TEG", 13874, O19="Solar", solar_array_cost*Q19)+(P19*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>3950</v>
       </c>
       <c r="X19" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y19" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>39525</v>
       </c>
       <c r="Z19" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA19" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3952.5</v>
       </c>
       <c r="AB19" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC19" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD19" s="34">
-        <f>VLOOKUP(O19,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE19" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF19" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3004</v>
       </c>
       <c r="AG19" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>6956.5</v>
       </c>
     </row>
@@ -4382,99 +4382,99 @@
         <v>123</v>
       </c>
       <c r="J20" s="30" t="str">
-        <f>VLOOKUP(A20,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K20" s="30" t="str">
-        <f>VLOOKUP(A20,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L20" s="30" t="str">
-        <f>VLOOKUP(A20,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M20" s="80" t="str">
-        <f>VLOOKUP(A20,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N20" s="29">
-        <f>VLOOKUP(A20,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O20" s="30" t="str">
-        <f>VLOOKUP(A20,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5060 Hybrid TEG</v>
       </c>
       <c r="P20" s="29">
-        <f>VLOOKUP(A20,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q20" s="29">
-        <f>VLOOKUP(A20,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="R20" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S20" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T20" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U20" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V20" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11740</v>
       </c>
       <c r="W20" s="32">
-        <f>_xlfn.IFS(O20="Grid Power", 2550, O20="Grid Power PLC", 3940, O20="5060 Hybrid TEG", 27903, O20="5060 TEG", 10479, O20="5120 TEG", 13874, O20="Solar", solar_array_cost*Q20)+(P20*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>30003</v>
       </c>
       <c r="X20" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y20" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>65578</v>
       </c>
       <c r="Z20" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA20" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>6557.8</v>
       </c>
       <c r="AB20" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>546</v>
       </c>
       <c r="AC20" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD20" s="34">
-        <f>VLOOKUP(O20,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>780.19</v>
       </c>
       <c r="AE20" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF20" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3846.19</v>
       </c>
       <c r="AG20" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>10403.99</v>
       </c>
     </row>
@@ -4507,99 +4507,99 @@
         <v>123</v>
       </c>
       <c r="J21" s="30" t="str">
-        <f>VLOOKUP(A21,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K21" s="30" t="str">
-        <f>VLOOKUP(A21,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L21" s="30" t="str">
-        <f>VLOOKUP(A21,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M21" s="80" t="str">
-        <f>VLOOKUP(A21,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N21" s="29">
-        <f>VLOOKUP(A21,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O21" s="30" t="str">
-        <f>VLOOKUP(A21,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5060 Hybrid TEG</v>
       </c>
       <c r="P21" s="29">
-        <f>VLOOKUP(A21,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q21" s="29">
-        <f>VLOOKUP(A21,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="R21" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S21" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T21" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U21" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V21" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11740</v>
       </c>
       <c r="W21" s="32">
-        <f>_xlfn.IFS(O21="Grid Power", 2550, O21="Grid Power PLC", 3940, O21="5060 Hybrid TEG", 27903, O21="5060 TEG", 10479, O21="5120 TEG", 13874, O21="Solar", solar_array_cost*Q21)+(P21*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>30003</v>
       </c>
       <c r="X21" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y21" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>65578</v>
       </c>
       <c r="Z21" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA21" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>6557.8</v>
       </c>
       <c r="AB21" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>546</v>
       </c>
       <c r="AC21" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD21" s="34">
-        <f>VLOOKUP(O21,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>780.19</v>
       </c>
       <c r="AE21" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF21" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3846.19</v>
       </c>
       <c r="AG21" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>10403.99</v>
       </c>
     </row>
@@ -4632,99 +4632,99 @@
         <v>123</v>
       </c>
       <c r="J22" s="30" t="str">
-        <f>VLOOKUP(A22,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K22" s="30" t="str">
-        <f>VLOOKUP(A22,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L22" s="30" t="str">
-        <f>VLOOKUP(A22,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M22" s="80" t="str">
-        <f>VLOOKUP(A22,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N22" s="29">
-        <f>VLOOKUP(A22,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="O22" s="30" t="str">
-        <f>VLOOKUP(A22,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5060 Hybrid TEG</v>
       </c>
       <c r="P22" s="29">
-        <f>VLOOKUP(A22,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q22" s="29">
-        <f>VLOOKUP(A22,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="R22" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S22" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T22" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U22" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V22" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>14675</v>
       </c>
       <c r="W22" s="32">
-        <f>_xlfn.IFS(O22="Grid Power", 2550, O22="Grid Power PLC", 3940, O22="5060 Hybrid TEG", 27903, O22="5060 TEG", 10479, O22="5120 TEG", 13874, O22="Solar", solar_array_cost*Q22)+(P22*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>30003</v>
       </c>
       <c r="X22" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y22" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>68513</v>
       </c>
       <c r="Z22" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA22" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>6851.3</v>
       </c>
       <c r="AB22" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>546</v>
       </c>
       <c r="AC22" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD22" s="34">
-        <f>VLOOKUP(O22,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>780.19</v>
       </c>
       <c r="AE22" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF22" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3846.19</v>
       </c>
       <c r="AG22" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>10697.49</v>
       </c>
     </row>
@@ -4757,99 +4757,99 @@
         <v>123</v>
       </c>
       <c r="J23" s="30" t="str">
-        <f>VLOOKUP(A23,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K23" s="30" t="str">
-        <f>VLOOKUP(A23,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L23" s="30" t="str">
-        <f>VLOOKUP(A23,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M23" s="80" t="str">
-        <f>VLOOKUP(A23,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N23" s="29">
-        <f>VLOOKUP(A23,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O23" s="30" t="str">
-        <f>VLOOKUP(A23,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Grid Power</v>
       </c>
       <c r="P23" s="29">
-        <f>VLOOKUP(A23,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q23" s="29">
-        <f>VLOOKUP(A23,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R23" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S23" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T23" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U23" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V23" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17610</v>
       </c>
       <c r="W23" s="32">
-        <f>_xlfn.IFS(O23="Grid Power", 2550, O23="Grid Power PLC", 3940, O23="5060 Hybrid TEG", 27903, O23="5060 TEG", 10479, O23="5120 TEG", 13874, O23="Solar", solar_array_cost*Q23)+(P23*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>3950</v>
       </c>
       <c r="X23" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y23" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>45395</v>
       </c>
       <c r="Z23" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA23" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4539.5</v>
       </c>
       <c r="AB23" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC23" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD23" s="34">
-        <f>VLOOKUP(O23,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE23" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF23" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3004</v>
       </c>
       <c r="AG23" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>7543.5</v>
       </c>
     </row>
@@ -4882,99 +4882,99 @@
         <v>123</v>
       </c>
       <c r="J24" s="30" t="str">
-        <f>VLOOKUP(A24,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Cellular Modem</v>
       </c>
       <c r="K24" s="30" t="str">
-        <f>VLOOKUP(A24,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L24" s="30" t="str">
-        <f>VLOOKUP(A24,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M24" s="80" t="str">
-        <f>VLOOKUP(A24,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N24" s="29">
-        <f>VLOOKUP(A24,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O24" s="30" t="str">
-        <f>VLOOKUP(A24,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5060 Hybrid TEG</v>
       </c>
       <c r="P24" s="29">
-        <f>VLOOKUP(A24,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q24" s="29">
-        <f>VLOOKUP(A24,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="R24" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>742</v>
       </c>
       <c r="S24" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T24" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U24" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V24" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17610</v>
       </c>
       <c r="W24" s="32">
-        <f>_xlfn.IFS(O24="Grid Power", 2550, O24="Grid Power PLC", 3940, O24="5060 Hybrid TEG", 27903, O24="5060 TEG", 10479, O24="5120 TEG", 13874, O24="Solar", solar_array_cost*Q24)+(P24*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>30003</v>
       </c>
       <c r="X24" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y24" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>70190</v>
       </c>
       <c r="Z24" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA24" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>7019</v>
       </c>
       <c r="AB24" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>546</v>
       </c>
       <c r="AC24" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>300</v>
       </c>
       <c r="AD24" s="34">
-        <f>VLOOKUP(O24,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>780.19</v>
       </c>
       <c r="AE24" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF24" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2706.19</v>
       </c>
       <c r="AG24" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>9725.19</v>
       </c>
     </row>
@@ -5007,99 +5007,99 @@
         <v>123</v>
       </c>
       <c r="J25" s="30" t="str">
-        <f>VLOOKUP(A25,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K25" s="30" t="str">
-        <f>VLOOKUP(A25,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L25" s="30" t="str">
-        <f>VLOOKUP(A25,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>FS1001M</v>
       </c>
       <c r="M25" s="80" t="str">
-        <f>VLOOKUP(A25,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N25" s="29">
-        <f>VLOOKUP(A25,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O25" s="30" t="str">
-        <f>VLOOKUP(A25,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5060 TEG</v>
       </c>
       <c r="P25" s="29">
-        <f>VLOOKUP(A25,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q25" s="29">
-        <f>VLOOKUP(A25,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R25" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S25" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T25" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U25" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V25" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17610</v>
       </c>
       <c r="W25" s="32">
-        <f>_xlfn.IFS(O25="Grid Power", 2550, O25="Grid Power PLC", 3940, O25="5060 Hybrid TEG", 27903, O25="5060 TEG", 10479, O25="5120 TEG", 13874, O25="Solar", solar_array_cost*Q25)+(P25*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>10479</v>
       </c>
       <c r="X25" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y25" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>51924</v>
       </c>
       <c r="Z25" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AA25" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>5192.4000000000005</v>
       </c>
       <c r="AB25" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC25" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD25" s="34">
-        <f>VLOOKUP(O25,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>1560.38</v>
       </c>
       <c r="AE25" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF25" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4080.38</v>
       </c>
       <c r="AG25" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>9272.7800000000007</v>
       </c>
     </row>
@@ -5132,99 +5132,99 @@
         <v>123</v>
       </c>
       <c r="J26" s="30" t="str">
-        <f>VLOOKUP(A26,om_table,23,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K26" s="30" t="str">
-        <f>VLOOKUP(A26,om_table,22,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>BioProbe3</v>
       </c>
       <c r="L26" s="30" t="str">
-        <f>VLOOKUP(A26,om_table,20,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>IS1001-MTS</v>
       </c>
       <c r="M26" s="80" t="str">
-        <f>VLOOKUP(A26,om_table,21,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N26" s="29">
-        <f>VLOOKUP(A26,om_table,30,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O26" s="30" t="str">
-        <f>VLOOKUP(A26,om_table,9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Grid Power</v>
       </c>
       <c r="P26" s="29">
-        <f>VLOOKUP(A26,om_table,16,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q26" s="29">
-        <f>VLOOKUP(A26,om_table,17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R26" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S26" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T26" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U26" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>8336</v>
       </c>
       <c r="V26" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11740</v>
       </c>
       <c r="W26" s="32">
-        <f>_xlfn.IFS(O26="Grid Power", 2550, O26="Grid Power PLC", 3940, O26="5060 Hybrid TEG", 27903, O26="5060 TEG", 10479, O26="5120 TEG", 13874, O26="Solar", solar_array_cost*Q26)+(P26*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>3950</v>
       </c>
       <c r="X26" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>12500</v>
       </c>
       <c r="Y26" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>43811</v>
       </c>
       <c r="Z26" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
       <c r="AA26" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3504.88</v>
       </c>
       <c r="AB26" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC26" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD26" s="34">
-        <f>VLOOKUP(O26,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE26" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF26" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3004</v>
       </c>
       <c r="AG26" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>6508.88</v>
       </c>
     </row>
@@ -5281,65 +5281,65 @@
         <v>0</v>
       </c>
       <c r="R27" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S27" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T27" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U27" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>12504</v>
       </c>
       <c r="V27" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>17610</v>
       </c>
       <c r="W27" s="32">
-        <f>_xlfn.IFS(O27="Grid Power", 2550, O27="Grid Power PLC", 3940, O27="5060 Hybrid TEG", 27903, O27="5060 TEG", 10479, O27="5120 TEG", 13874, O27="Solar", solar_array_cost*Q27)+(P27*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>11879</v>
       </c>
       <c r="X27" s="57">
         <v>12500</v>
       </c>
       <c r="Y27" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>61778</v>
       </c>
       <c r="Z27" s="59">
         <v>0.08</v>
       </c>
       <c r="AA27" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4942.24</v>
       </c>
       <c r="AB27" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC27" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD27" s="34">
-        <f>VLOOKUP(O27,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>1560.38</v>
       </c>
       <c r="AE27" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF27" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4444.38</v>
       </c>
       <c r="AG27" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>9386.619999999999</v>
       </c>
     </row>
@@ -5396,65 +5396,65 @@
         <v>0</v>
       </c>
       <c r="R28" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="S28" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T28" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8500</v>
       </c>
       <c r="U28" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V28" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11740</v>
       </c>
       <c r="W28" s="32">
-        <f>_xlfn.IFS(O28="Grid Power", 2550, O28="Grid Power PLC", 3940, O28="5060 Hybrid TEG", 27903, O28="5060 TEG", 10479, O28="5120 TEG", 13874, O28="Solar", solar_array_cost*Q28)+(P28*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>2550</v>
       </c>
       <c r="X28" s="57">
         <v>12500</v>
       </c>
       <c r="Y28" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>36525</v>
       </c>
       <c r="Z28" s="59">
         <v>0.1</v>
       </c>
       <c r="AA28" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3652.5</v>
       </c>
       <c r="AB28" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC28" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD28" s="34">
-        <f>VLOOKUP(O28,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE28" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF28" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1200</v>
       </c>
       <c r="AG28" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4852.5</v>
       </c>
     </row>
@@ -5511,65 +5511,65 @@
         <v>0</v>
       </c>
       <c r="R29" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S29" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T29" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U29" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>39596</v>
       </c>
       <c r="V29" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>55765</v>
       </c>
       <c r="W29" s="32">
-        <f>_xlfn.IFS(O29="Grid Power", 2550, O29="Grid Power PLC", 3940, O29="5060 Hybrid TEG", 27903, O29="5060 TEG", 10479, O29="5120 TEG", 13874, O29="Solar", solar_array_cost*Q29)+(P29*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>2550</v>
       </c>
       <c r="X29" s="57">
         <v>12500</v>
       </c>
       <c r="Y29" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>117696</v>
       </c>
       <c r="Z29" s="59">
         <v>0.08</v>
       </c>
       <c r="AA29" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>9415.68</v>
       </c>
       <c r="AB29" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC29" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD29" s="34">
-        <f>VLOOKUP(O29,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE29" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF29" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2640</v>
       </c>
       <c r="AG29" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>12055.68</v>
       </c>
     </row>
@@ -5626,65 +5626,65 @@
         <v>0</v>
       </c>
       <c r="R30" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S30" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T30" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U30" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>37512</v>
       </c>
       <c r="V30" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>52830</v>
       </c>
       <c r="W30" s="32">
-        <f>_xlfn.IFS(O30="Grid Power", 2550, O30="Grid Power PLC", 3940, O30="5060 Hybrid TEG", 27903, O30="5060 TEG", 10479, O30="5120 TEG", 13874, O30="Solar", solar_array_cost*Q30)+(P30*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>2550</v>
       </c>
       <c r="X30" s="57">
         <v>12500</v>
       </c>
       <c r="Y30" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>112677</v>
       </c>
       <c r="Z30" s="59">
         <v>0.08</v>
       </c>
       <c r="AA30" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>9014.16</v>
       </c>
       <c r="AB30" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC30" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD30" s="34">
-        <f>VLOOKUP(O30,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE30" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF30" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2640</v>
       </c>
       <c r="AG30" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>11654.16</v>
       </c>
     </row>
@@ -5741,65 +5741,65 @@
         <v>4</v>
       </c>
       <c r="R31" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S31" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T31" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U31" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>10420</v>
       </c>
       <c r="V31" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>14675</v>
       </c>
       <c r="W31" s="32">
-        <f>_xlfn.IFS(O31="Grid Power", 2550, O31="Grid Power PLC", 3940, O31="5060 Hybrid TEG", 27903, O31="5060 TEG", 10479, O31="5120 TEG", 13874, O31="Solar", solar_array_cost*Q31)+(P31*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>12224</v>
       </c>
       <c r="X31" s="57">
         <v>12500</v>
       </c>
       <c r="Y31" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>57104</v>
       </c>
       <c r="Z31" s="59">
         <v>0.08</v>
       </c>
       <c r="AA31" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4568.32</v>
       </c>
       <c r="AB31" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC31" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD31" s="34">
-        <f>VLOOKUP(O31,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE31" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF31" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2884</v>
       </c>
       <c r="AG31" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>7452.32</v>
       </c>
     </row>
@@ -5856,65 +5856,65 @@
         <v>4</v>
       </c>
       <c r="R32" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="S32" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T32" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U32" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>18756</v>
       </c>
       <c r="V32" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>26415</v>
       </c>
       <c r="W32" s="32">
-        <f>_xlfn.IFS(O32="Grid Power", 2550, O32="Grid Power PLC", 3940, O32="5060 Hybrid TEG", 27903, O32="5060 TEG", 10479, O32="5120 TEG", 13874, O32="Solar", solar_array_cost*Q32)+(P32*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>12224</v>
       </c>
       <c r="X32" s="57">
         <v>12500</v>
       </c>
       <c r="Y32" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>77180</v>
       </c>
       <c r="Z32" s="59">
         <v>0.08</v>
       </c>
       <c r="AA32" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>6174.4000000000005</v>
       </c>
       <c r="AB32" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC32" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1440</v>
       </c>
       <c r="AD32" s="34">
-        <f>VLOOKUP(O32,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE32" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF32" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2884</v>
       </c>
       <c r="AG32" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>9058.4000000000015</v>
       </c>
     </row>
@@ -5971,65 +5971,65 @@
         <v>0</v>
       </c>
       <c r="R33" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>742</v>
       </c>
       <c r="S33" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>835</v>
       </c>
       <c r="T33" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4450</v>
       </c>
       <c r="U33" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>8336</v>
       </c>
       <c r="V33" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11740</v>
       </c>
       <c r="W33" s="32">
-        <f>_xlfn.IFS(O33="Grid Power", 2550, O33="Grid Power PLC", 3940, O33="5060 Hybrid TEG", 27903, O33="5060 TEG", 10479, O33="5120 TEG", 13874, O33="Solar", solar_array_cost*Q33)+(P33*battery_cost)</f>
+        <f t="shared" si="12"/>
         <v>3950</v>
       </c>
       <c r="X33" s="57">
         <v>12500</v>
       </c>
       <c r="Y33" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>42553</v>
       </c>
       <c r="Z33" s="59">
         <v>0.08</v>
       </c>
       <c r="AA33" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3404.2400000000002</v>
       </c>
       <c r="AB33" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="AC33" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>300</v>
       </c>
       <c r="AD33" s="34">
-        <f>VLOOKUP(O33,power,3,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="AE33" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1080</v>
       </c>
       <c r="AF33" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1864</v>
       </c>
       <c r="AG33" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>5268.24</v>
       </c>
     </row>
@@ -6084,65 +6084,65 @@
         <v>0</v>
       </c>
       <c r="R34" s="32">
-        <f t="shared" ref="R34:R52" si="15">VLOOKUP(J34,communication,2,FALSE)</f>
+        <f t="shared" ref="R34:R52" si="25">VLOOKUP(J34,communication,2,FALSE)</f>
         <v>742</v>
       </c>
       <c r="S34" s="32">
-        <f t="shared" ref="S34:S52" si="16">IFERROR(VLOOKUP(K34,datalogger,2,FALSE),0)</f>
+        <f t="shared" ref="S34:S52" si="26">IFERROR(VLOOKUP(K34,datalogger,2,FALSE),0)</f>
         <v>835</v>
       </c>
       <c r="T34" s="32">
-        <f t="shared" ref="T34:T52" si="17">IFERROR(VLOOKUP(L34,transceiver,2,FALSE),0)</f>
+        <f t="shared" ref="T34:T52" si="27">IFERROR(VLOOKUP(L34,transceiver,2,FALSE),0)</f>
         <v>4450</v>
       </c>
       <c r="U34" s="32">
-        <f t="shared" ref="U34:U52" si="18">VLOOKUP(M34,reader,2,FALSE)*N34</f>
+        <f t="shared" ref="U34:U52" si="28">VLOOKUP(M34,reader,2,FALSE)*N34</f>
         <v>16672</v>
       </c>
       <c r="V34" s="32">
-        <f t="shared" ref="V34:V52" si="19">N34*antenna_cost</f>
+        <f t="shared" ref="V34:V52" si="29">N34*antenna_cost</f>
         <v>23480</v>
       </c>
       <c r="W34" s="32">
-        <f>_xlfn.IFS(O34="Grid Power", 2550, O34="Grid Power PLC", 3940, O34="5060 Hybrid TEG", 27903, O34="5060 TEG", 10479, O34="5120 TEG", 13874, O34="Solar", solar_array_cost*Q34)+(P34*battery_cost)</f>
+        <f t="shared" ref="W34:W52" si="30">_xlfn.IFS(O34="Grid Power", 2550, O34="Grid Power PLC", 3940, O34="5060 Hybrid TEG", 27903, O34="5060 TEG", 10479, O34="5120 TEG", 13874, O34="Solar", solar_array_cost*Q34)+(P34*battery_cost)</f>
         <v>3950</v>
       </c>
       <c r="X34" s="57">
         <v>12500</v>
       </c>
       <c r="Y34" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>62629</v>
       </c>
       <c r="Z34" s="59">
         <v>0.08</v>
       </c>
       <c r="AA34" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>5010.32</v>
       </c>
       <c r="AB34" s="34">
-        <f t="shared" ref="AB34:AB52" si="20">(P34*battery_replacement)/4</f>
+        <f t="shared" ref="AB34:AB52" si="31">(P34*battery_replacement)/4</f>
         <v>364</v>
       </c>
       <c r="AC34" s="34">
-        <f t="shared" ref="AC34:AC52" si="21">VLOOKUP(J34,communication,3,FALSE)</f>
+        <f t="shared" ref="AC34:AC52" si="32">VLOOKUP(J34,communication,3,FALSE)</f>
         <v>300</v>
       </c>
       <c r="AD34" s="34">
-        <f>VLOOKUP(O34,power,3,FALSE)</f>
+        <f t="shared" ref="AD34:AD52" si="33">VLOOKUP(O34,power,3,FALSE)</f>
         <v>120</v>
       </c>
       <c r="AE34" s="34">
-        <f t="shared" ref="AE34:AE52" si="22">data_management_mnth*12</f>
+        <f t="shared" ref="AE34:AE52" si="34">data_management_mnth*12</f>
         <v>1080</v>
       </c>
       <c r="AF34" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1864</v>
       </c>
       <c r="AG34" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>6874.32</v>
       </c>
     </row>
@@ -6197,65 +6197,65 @@
         <v>0</v>
       </c>
       <c r="R35" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="S35" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T35" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4450</v>
       </c>
       <c r="U35" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>8336</v>
       </c>
       <c r="V35" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>11740</v>
       </c>
       <c r="W35" s="32">
-        <f>_xlfn.IFS(O35="Grid Power", 2550, O35="Grid Power PLC", 3940, O35="5060 Hybrid TEG", 27903, O35="5060 TEG", 10479, O35="5120 TEG", 13874, O35="Solar", solar_array_cost*Q35)+(P35*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>3950</v>
       </c>
       <c r="X35" s="57">
         <v>12500</v>
       </c>
       <c r="Y35" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>42553</v>
       </c>
       <c r="Z35" s="59">
         <v>0.08</v>
       </c>
       <c r="AA35" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3404.2400000000002</v>
       </c>
       <c r="AB35" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="AC35" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>300</v>
       </c>
       <c r="AD35" s="34">
-        <f>VLOOKUP(O35,power,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>120</v>
       </c>
       <c r="AE35" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF35" s="35">
+        <f t="shared" si="23"/>
+        <v>1864</v>
+      </c>
+      <c r="AG35" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF35" s="35">
-        <f t="shared" si="14"/>
-        <v>1864</v>
-      </c>
-      <c r="AG35" s="36">
-        <f t="shared" si="13"/>
         <v>5268.24</v>
       </c>
     </row>
@@ -6312,65 +6312,65 @@
         <v>0</v>
       </c>
       <c r="R36" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2000</v>
       </c>
       <c r="S36" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T36" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4450</v>
       </c>
       <c r="U36" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>16672</v>
       </c>
       <c r="V36" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>23480</v>
       </c>
       <c r="W36" s="32">
-        <f>_xlfn.IFS(O36="Grid Power", 2550, O36="Grid Power PLC", 3940, O36="5060 Hybrid TEG", 27903, O36="5060 TEG", 10479, O36="5120 TEG", 13874, O36="Solar", solar_array_cost*Q36)+(P36*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>11879</v>
       </c>
       <c r="X36" s="57">
         <v>12500</v>
       </c>
       <c r="Y36" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>71816</v>
       </c>
       <c r="Z36" s="59">
         <v>0.08</v>
       </c>
       <c r="AA36" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>5745.28</v>
       </c>
       <c r="AB36" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="AC36" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>1440</v>
       </c>
       <c r="AD36" s="34">
-        <f>VLOOKUP(O36,power,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>1560.38</v>
       </c>
       <c r="AE36" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF36" s="35">
+        <f t="shared" si="23"/>
+        <v>4444.38</v>
+      </c>
+      <c r="AG36" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF36" s="35">
-        <f t="shared" si="14"/>
-        <v>4444.38</v>
-      </c>
-      <c r="AG36" s="36">
-        <f t="shared" si="13"/>
         <v>10189.66</v>
       </c>
     </row>
@@ -6427,65 +6427,65 @@
         <v>0</v>
       </c>
       <c r="R37" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S37" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T37" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4450</v>
       </c>
       <c r="U37" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>20840</v>
       </c>
       <c r="V37" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>29350</v>
       </c>
       <c r="W37" s="32">
-        <f>_xlfn.IFS(O37="Grid Power", 2550, O37="Grid Power PLC", 3940, O37="5060 Hybrid TEG", 27903, O37="5060 TEG", 10479, O37="5120 TEG", 13874, O37="Solar", solar_array_cost*Q37)+(P37*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>15274</v>
       </c>
       <c r="X37" s="57">
         <v>12500</v>
       </c>
       <c r="Y37" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>83249</v>
       </c>
       <c r="Z37" s="59">
         <v>0.08</v>
       </c>
       <c r="AA37" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>6659.92</v>
       </c>
       <c r="AB37" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="AC37" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AD37" s="34">
-        <f>VLOOKUP(O37,power,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>3120.75</v>
       </c>
       <c r="AE37" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF37" s="35">
+        <f t="shared" si="23"/>
+        <v>4564.75</v>
+      </c>
+      <c r="AG37" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF37" s="35">
-        <f t="shared" si="14"/>
-        <v>4564.75</v>
-      </c>
-      <c r="AG37" s="36">
-        <f t="shared" si="13"/>
         <v>11224.67</v>
       </c>
     </row>
@@ -6542,65 +6542,65 @@
         <v>0</v>
       </c>
       <c r="R38" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2000</v>
       </c>
       <c r="S38" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T38" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4450</v>
       </c>
       <c r="U38" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>10420</v>
       </c>
       <c r="V38" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>14675</v>
       </c>
       <c r="W38" s="32">
-        <f>_xlfn.IFS(O38="Grid Power", 2550, O38="Grid Power PLC", 3940, O38="5060 Hybrid TEG", 27903, O38="5060 TEG", 10479, O38="5120 TEG", 13874, O38="Solar", solar_array_cost*Q38)+(P38*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>3950</v>
       </c>
       <c r="X38" s="57">
         <v>12500</v>
       </c>
       <c r="Y38" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>48830</v>
       </c>
       <c r="Z38" s="59">
         <v>0.08</v>
       </c>
       <c r="AA38" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3906.4</v>
       </c>
       <c r="AB38" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="AC38" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>1440</v>
       </c>
       <c r="AD38" s="34">
-        <f>VLOOKUP(O38,power,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>120</v>
       </c>
       <c r="AE38" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF38" s="35">
+        <f t="shared" si="23"/>
+        <v>3004</v>
+      </c>
+      <c r="AG38" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF38" s="35">
-        <f t="shared" si="14"/>
-        <v>3004</v>
-      </c>
-      <c r="AG38" s="36">
-        <f t="shared" si="13"/>
         <v>6910.4</v>
       </c>
     </row>
@@ -6657,65 +6657,65 @@
         <v>0</v>
       </c>
       <c r="R39" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="S39" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T39" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4450</v>
       </c>
       <c r="U39" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>12504</v>
       </c>
       <c r="V39" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>17610</v>
       </c>
       <c r="W39" s="32">
-        <f>_xlfn.IFS(O39="Grid Power", 2550, O39="Grid Power PLC", 3940, O39="5060 Hybrid TEG", 27903, O39="5060 TEG", 10479, O39="5120 TEG", 13874, O39="Solar", solar_array_cost*Q39)+(P39*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>3950</v>
       </c>
       <c r="X39" s="57">
         <v>12500</v>
       </c>
       <c r="Y39" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>52591</v>
       </c>
       <c r="Z39" s="59">
         <v>0.08</v>
       </c>
       <c r="AA39" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4207.28</v>
       </c>
       <c r="AB39" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="AC39" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>300</v>
       </c>
       <c r="AD39" s="34">
-        <f>VLOOKUP(O39,power,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>120</v>
       </c>
       <c r="AE39" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF39" s="35">
+        <f t="shared" si="23"/>
+        <v>1864</v>
+      </c>
+      <c r="AG39" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF39" s="35">
-        <f t="shared" si="14"/>
-        <v>1864</v>
-      </c>
-      <c r="AG39" s="36">
-        <f t="shared" si="13"/>
         <v>6071.28</v>
       </c>
     </row>
@@ -6764,65 +6764,65 @@
         <v>0</v>
       </c>
       <c r="R40" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="S40" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T40" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4450</v>
       </c>
       <c r="U40" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>25008</v>
       </c>
       <c r="V40" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>35220</v>
       </c>
       <c r="W40" s="32">
-        <f>_xlfn.IFS(O40="Grid Power", 2550, O40="Grid Power PLC", 3940, O40="5060 Hybrid TEG", 27903, O40="5060 TEG", 10479, O40="5120 TEG", 13874, O40="Solar", solar_array_cost*Q40)+(P40*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>15274</v>
       </c>
       <c r="X40" s="57">
         <v>12500</v>
       </c>
       <c r="Y40" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>94029</v>
       </c>
       <c r="Z40" s="59">
         <v>0.08</v>
       </c>
       <c r="AA40" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>7522.32</v>
       </c>
       <c r="AB40" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="AC40" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>300</v>
       </c>
       <c r="AD40" s="34">
-        <f>VLOOKUP(O40,power,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>3120.75</v>
       </c>
       <c r="AE40" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF40" s="35">
+        <f t="shared" si="23"/>
+        <v>4864.75</v>
+      </c>
+      <c r="AG40" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF40" s="35">
-        <f t="shared" si="14"/>
-        <v>4864.75</v>
-      </c>
-      <c r="AG40" s="36">
-        <f t="shared" si="13"/>
         <v>12387.07</v>
       </c>
     </row>
@@ -6871,65 +6871,65 @@
         <v>0</v>
       </c>
       <c r="R41" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="S41" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T41" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4450</v>
       </c>
       <c r="U41" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>25008</v>
       </c>
       <c r="V41" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>35220</v>
       </c>
       <c r="W41" s="32">
-        <f>_xlfn.IFS(O41="Grid Power", 2550, O41="Grid Power PLC", 3940, O41="5060 Hybrid TEG", 27903, O41="5060 TEG", 10479, O41="5120 TEG", 13874, O41="Solar", solar_array_cost*Q41)+(P41*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>15274</v>
       </c>
       <c r="X41" s="57">
         <v>12500</v>
       </c>
       <c r="Y41" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>94029</v>
       </c>
       <c r="Z41" s="59">
         <v>0.08</v>
       </c>
       <c r="AA41" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>7522.32</v>
       </c>
       <c r="AB41" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="AC41" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>300</v>
       </c>
       <c r="AD41" s="34">
-        <f>VLOOKUP(O41,power,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>3120.75</v>
       </c>
       <c r="AE41" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF41" s="35">
+        <f t="shared" si="23"/>
+        <v>4864.75</v>
+      </c>
+      <c r="AG41" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF41" s="35">
-        <f t="shared" si="14"/>
-        <v>4864.75</v>
-      </c>
-      <c r="AG41" s="36">
-        <f t="shared" si="13"/>
         <v>12387.07</v>
       </c>
     </row>
@@ -6978,65 +6978,65 @@
         <v>8</v>
       </c>
       <c r="R42" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="S42" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T42" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4450</v>
       </c>
       <c r="U42" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>16672</v>
       </c>
       <c r="V42" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>23480</v>
       </c>
       <c r="W42" s="32">
-        <f>_xlfn.IFS(O42="Grid Power", 2550, O42="Grid Power PLC", 3940, O42="5060 Hybrid TEG", 27903, O42="5060 TEG", 10479, O42="5120 TEG", 13874, O42="Solar", solar_array_cost*Q42)+(P42*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>29303</v>
       </c>
       <c r="X42" s="57">
         <v>12500</v>
       </c>
       <c r="Y42" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>87982</v>
       </c>
       <c r="Z42" s="59">
         <v>0.08</v>
       </c>
       <c r="AA42" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>7038.56</v>
       </c>
       <c r="AB42" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="AC42" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>300</v>
       </c>
       <c r="AD42" s="34">
-        <f>VLOOKUP(O42,power,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>780.19</v>
       </c>
       <c r="AE42" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF42" s="35">
+        <f t="shared" si="23"/>
+        <v>2524.19</v>
+      </c>
+      <c r="AG42" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF42" s="35">
-        <f t="shared" si="14"/>
-        <v>2524.19</v>
-      </c>
-      <c r="AG42" s="36">
-        <f t="shared" si="13"/>
         <v>9562.75</v>
       </c>
     </row>
@@ -7085,65 +7085,65 @@
         <v>0</v>
       </c>
       <c r="R43" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="S43" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T43" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4450</v>
       </c>
       <c r="U43" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>16672</v>
       </c>
       <c r="V43" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>23480</v>
       </c>
       <c r="W43" s="32">
-        <f>_xlfn.IFS(O43="Grid Power", 2550, O43="Grid Power PLC", 3940, O43="5060 Hybrid TEG", 27903, O43="5060 TEG", 10479, O43="5120 TEG", 13874, O43="Solar", solar_array_cost*Q43)+(P43*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>3950</v>
       </c>
       <c r="X43" s="57">
         <v>12500</v>
       </c>
       <c r="Y43" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>62629</v>
       </c>
       <c r="Z43" s="59">
         <v>0.08</v>
       </c>
       <c r="AA43" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>5010.32</v>
       </c>
       <c r="AB43" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="AC43" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>300</v>
       </c>
       <c r="AD43" s="34">
-        <f>VLOOKUP(O43,power,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>120</v>
       </c>
       <c r="AE43" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF43" s="35">
+        <f t="shared" si="23"/>
+        <v>1864</v>
+      </c>
+      <c r="AG43" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF43" s="35">
-        <f t="shared" si="14"/>
-        <v>1864</v>
-      </c>
-      <c r="AG43" s="36">
-        <f t="shared" si="13"/>
         <v>6874.32</v>
       </c>
     </row>
@@ -7176,7 +7176,7 @@
         <v>123</v>
       </c>
       <c r="J44" s="30" t="str">
-        <f>VLOOKUP(A44,om_table,23,FALSE)</f>
+        <f t="shared" ref="J44:J52" si="35">VLOOKUP(A44,om_table,23,FALSE)</f>
         <v>Cellular Modem</v>
       </c>
       <c r="K44" s="30" t="str">
@@ -7188,87 +7188,87 @@
         <v>FS1001M</v>
       </c>
       <c r="M44" s="80" t="str">
-        <f>VLOOKUP(A44,om_table,21,FALSE)</f>
+        <f t="shared" ref="M44:M52" si="36">VLOOKUP(A44,om_table,21,FALSE)</f>
         <v>Biomark MUX</v>
       </c>
       <c r="N44" s="29">
-        <f>VLOOKUP(A44,om_table,30,FALSE)</f>
+        <f t="shared" ref="N44:N52" si="37">VLOOKUP(A44,om_table,30,FALSE)</f>
         <v>6</v>
       </c>
       <c r="O44" s="30" t="str">
-        <f>VLOOKUP(A44,om_table,9,FALSE)</f>
+        <f t="shared" ref="O44:O52" si="38">VLOOKUP(A44,om_table,9,FALSE)</f>
         <v>Grid Power</v>
       </c>
       <c r="P44" s="29">
-        <f>VLOOKUP(A44,om_table,16,FALSE)</f>
+        <f t="shared" ref="P44:P52" si="39">VLOOKUP(A44,om_table,16,FALSE)</f>
         <v>4</v>
       </c>
       <c r="Q44" s="29">
-        <f>VLOOKUP(A44,om_table,17,FALSE)</f>
+        <f t="shared" ref="Q44:Q52" si="40">VLOOKUP(A44,om_table,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R44" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="S44" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T44" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>8500</v>
       </c>
       <c r="U44" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V44" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>17610</v>
       </c>
       <c r="W44" s="32">
-        <f>_xlfn.IFS(O44="Grid Power", 2550, O44="Grid Power PLC", 3940, O44="5060 Hybrid TEG", 27903, O44="5060 TEG", 10479, O44="5120 TEG", 13874, O44="Solar", solar_array_cost*Q44)+(P44*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>3950</v>
       </c>
       <c r="X44" s="32">
-        <f t="shared" ref="X44:X52" si="23">VLOOKUP(A44,om_table,40,FALSE)</f>
+        <f t="shared" ref="X44:X52" si="41">VLOOKUP(A44,om_table,40,FALSE)</f>
         <v>12500</v>
       </c>
       <c r="Y44" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>44137</v>
       </c>
       <c r="Z44" s="58">
-        <f t="shared" ref="Z44:Z52" si="24">VLOOKUP(A44,om_table,48,FALSE)</f>
+        <f t="shared" ref="Z44:Z52" si="42">VLOOKUP(A44,om_table,48,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="AA44" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4413.7</v>
       </c>
       <c r="AB44" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="AC44" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>300</v>
       </c>
       <c r="AD44" s="34">
-        <f>VLOOKUP(O44,power,3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>120</v>
       </c>
       <c r="AE44" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF44" s="35">
+        <f t="shared" si="23"/>
+        <v>1864</v>
+      </c>
+      <c r="AG44" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF44" s="35">
-        <f t="shared" si="14"/>
-        <v>1864</v>
-      </c>
-      <c r="AG44" s="36">
-        <f t="shared" si="13"/>
         <v>6277.7</v>
       </c>
     </row>
@@ -7301,91 +7301,91 @@
         <v>123</v>
       </c>
       <c r="J45" s="30" t="str">
-        <f>VLOOKUP(A45,om_table,23,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>Cellular Modem</v>
       </c>
       <c r="M45" s="80" t="str">
-        <f>VLOOKUP(A45,om_table,21,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N45" s="29">
-        <f>VLOOKUP(A45,om_table,30,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="O45" s="30" t="str">
-        <f>VLOOKUP(A45,om_table,9,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>Solar</v>
       </c>
       <c r="P45" s="29">
-        <f>VLOOKUP(A45,om_table,16,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="Q45" s="29">
-        <f>VLOOKUP(A45,om_table,17,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="R45" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="S45" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T45" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U45" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>4168</v>
       </c>
       <c r="V45" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>5870</v>
       </c>
       <c r="W45" s="32">
-        <f>_xlfn.IFS(O45="Grid Power", 2550, O45="Grid Power PLC", 3940, O45="5060 Hybrid TEG", 27903, O45="5060 TEG", 10479, O45="5120 TEG", 13874, O45="Solar", solar_array_cost*Q45)+(P45*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>12224</v>
       </c>
       <c r="X45" s="32">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
+      <c r="Y45" s="33">
+        <f t="shared" si="20"/>
+        <v>28004</v>
+      </c>
+      <c r="Z45" s="58">
+        <f t="shared" si="42"/>
+        <v>0.08</v>
+      </c>
+      <c r="AA45" s="33">
+        <f t="shared" si="21"/>
+        <v>2240.3200000000002</v>
+      </c>
+      <c r="AB45" s="34">
+        <f t="shared" si="31"/>
+        <v>364</v>
+      </c>
+      <c r="AC45" s="34">
+        <f t="shared" si="32"/>
+        <v>300</v>
+      </c>
+      <c r="AD45" s="34">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF45" s="35">
         <f t="shared" si="23"/>
-        <v>5000</v>
-      </c>
-      <c r="Y45" s="33">
-        <f t="shared" si="11"/>
-        <v>28004</v>
-      </c>
-      <c r="Z45" s="58">
-        <f t="shared" si="24"/>
-        <v>0.08</v>
-      </c>
-      <c r="AA45" s="33">
-        <f t="shared" si="12"/>
-        <v>2240.3200000000002</v>
-      </c>
-      <c r="AB45" s="34">
-        <f t="shared" si="20"/>
-        <v>364</v>
-      </c>
-      <c r="AC45" s="34">
-        <f t="shared" si="21"/>
-        <v>300</v>
-      </c>
-      <c r="AD45" s="34">
-        <f>VLOOKUP(O45,power,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="34">
+        <v>1744</v>
+      </c>
+      <c r="AG45" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF45" s="35">
-        <f t="shared" si="14"/>
-        <v>1744</v>
-      </c>
-      <c r="AG45" s="36">
-        <f t="shared" si="13"/>
         <v>3984.32</v>
       </c>
     </row>
@@ -7418,7 +7418,7 @@
         <v>123</v>
       </c>
       <c r="J46" s="30" t="str">
-        <f>VLOOKUP(A46,om_table,23,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>Cellular Modem</v>
       </c>
       <c r="K46" s="30" t="str">
@@ -7426,87 +7426,87 @@
         <v>BioProbe3</v>
       </c>
       <c r="M46" s="80" t="str">
-        <f>VLOOKUP(A46,om_table,21,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N46" s="29">
-        <f>VLOOKUP(A46,om_table,30,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="O46" s="30" t="str">
-        <f>VLOOKUP(A46,om_table,9,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>Solar</v>
       </c>
       <c r="P46" s="29">
-        <f>VLOOKUP(A46,om_table,16,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="Q46" s="29">
-        <f>VLOOKUP(A46,om_table,17,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="R46" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="S46" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T46" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U46" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>4168</v>
       </c>
       <c r="V46" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>5870</v>
       </c>
       <c r="W46" s="32">
-        <f>_xlfn.IFS(O46="Grid Power", 2550, O46="Grid Power PLC", 3940, O46="5060 Hybrid TEG", 27903, O46="5060 TEG", 10479, O46="5120 TEG", 13874, O46="Solar", solar_array_cost*Q46)+(P46*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>12924</v>
       </c>
       <c r="X46" s="32">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
+      <c r="Y46" s="33">
+        <f t="shared" si="20"/>
+        <v>29539</v>
+      </c>
+      <c r="Z46" s="58">
+        <f t="shared" si="42"/>
+        <v>0.08</v>
+      </c>
+      <c r="AA46" s="33">
+        <f t="shared" si="21"/>
+        <v>2363.12</v>
+      </c>
+      <c r="AB46" s="34">
+        <f t="shared" si="31"/>
+        <v>546</v>
+      </c>
+      <c r="AC46" s="34">
+        <f t="shared" si="32"/>
+        <v>300</v>
+      </c>
+      <c r="AD46" s="34">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF46" s="35">
         <f t="shared" si="23"/>
-        <v>5000</v>
-      </c>
-      <c r="Y46" s="33">
-        <f t="shared" si="11"/>
-        <v>29539</v>
-      </c>
-      <c r="Z46" s="58">
-        <f t="shared" si="24"/>
-        <v>0.08</v>
-      </c>
-      <c r="AA46" s="33">
-        <f t="shared" si="12"/>
-        <v>2363.12</v>
-      </c>
-      <c r="AB46" s="34">
-        <f t="shared" si="20"/>
-        <v>546</v>
-      </c>
-      <c r="AC46" s="34">
-        <f t="shared" si="21"/>
-        <v>300</v>
-      </c>
-      <c r="AD46" s="34">
-        <f>VLOOKUP(O46,power,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="34">
+        <v>1926</v>
+      </c>
+      <c r="AG46" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF46" s="35">
-        <f t="shared" si="14"/>
-        <v>1926</v>
-      </c>
-      <c r="AG46" s="36">
-        <f t="shared" si="13"/>
         <v>4289.12</v>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
         <v>123</v>
       </c>
       <c r="J47" s="30" t="str">
-        <f>VLOOKUP(A47,om_table,23,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>Cellular Modem</v>
       </c>
       <c r="K47" s="30" t="str">
@@ -7547,87 +7547,87 @@
         <v>BioProbe3</v>
       </c>
       <c r="M47" s="80" t="str">
-        <f>VLOOKUP(A47,om_table,21,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N47" s="29">
-        <f>VLOOKUP(A47,om_table,30,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="O47" s="30" t="str">
-        <f>VLOOKUP(A47,om_table,9,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>Grid Power</v>
       </c>
       <c r="P47" s="29">
-        <f>VLOOKUP(A47,om_table,16,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="Q47" s="29">
-        <f>VLOOKUP(A47,om_table,17,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R47" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="S47" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T47" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U47" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>4168</v>
       </c>
       <c r="V47" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>5870</v>
       </c>
       <c r="W47" s="32">
-        <f>_xlfn.IFS(O47="Grid Power", 2550, O47="Grid Power PLC", 3940, O47="5060 Hybrid TEG", 27903, O47="5060 TEG", 10479, O47="5120 TEG", 13874, O47="Solar", solar_array_cost*Q47)+(P47*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>3950</v>
       </c>
       <c r="X47" s="32">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
+      <c r="Y47" s="33">
+        <f t="shared" si="20"/>
+        <v>20565</v>
+      </c>
+      <c r="Z47" s="58">
+        <f t="shared" si="42"/>
+        <v>0.08</v>
+      </c>
+      <c r="AA47" s="33">
+        <f t="shared" si="21"/>
+        <v>1645.2</v>
+      </c>
+      <c r="AB47" s="34">
+        <f t="shared" si="31"/>
+        <v>364</v>
+      </c>
+      <c r="AC47" s="34">
+        <f t="shared" si="32"/>
+        <v>300</v>
+      </c>
+      <c r="AD47" s="34">
+        <f t="shared" si="33"/>
+        <v>120</v>
+      </c>
+      <c r="AE47" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF47" s="35">
         <f t="shared" si="23"/>
-        <v>5000</v>
-      </c>
-      <c r="Y47" s="33">
-        <f t="shared" si="11"/>
-        <v>20565</v>
-      </c>
-      <c r="Z47" s="58">
-        <f t="shared" si="24"/>
-        <v>0.08</v>
-      </c>
-      <c r="AA47" s="33">
-        <f t="shared" si="12"/>
-        <v>1645.2</v>
-      </c>
-      <c r="AB47" s="34">
-        <f t="shared" si="20"/>
-        <v>364</v>
-      </c>
-      <c r="AC47" s="34">
-        <f t="shared" si="21"/>
-        <v>300</v>
-      </c>
-      <c r="AD47" s="34">
-        <f>VLOOKUP(O47,power,3,FALSE)</f>
-        <v>120</v>
-      </c>
-      <c r="AE47" s="34">
+        <v>1864</v>
+      </c>
+      <c r="AG47" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF47" s="35">
-        <f t="shared" si="14"/>
-        <v>1864</v>
-      </c>
-      <c r="AG47" s="36">
-        <f t="shared" si="13"/>
         <v>3509.2</v>
       </c>
     </row>
@@ -7660,91 +7660,91 @@
         <v>123</v>
       </c>
       <c r="J48" s="30" t="str">
-        <f>VLOOKUP(A48,om_table,23,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>Cellular Modem</v>
       </c>
       <c r="M48" s="80" t="str">
-        <f>VLOOKUP(A48,om_table,21,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N48" s="29">
-        <f>VLOOKUP(A48,om_table,30,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="O48" s="30" t="str">
-        <f>VLOOKUP(A48,om_table,9,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>Grid Power</v>
       </c>
       <c r="P48" s="29">
-        <f>VLOOKUP(A48,om_table,16,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="Q48" s="29">
-        <f>VLOOKUP(A48,om_table,17,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R48" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>742</v>
       </c>
       <c r="S48" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T48" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U48" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>4168</v>
       </c>
       <c r="V48" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>5870</v>
       </c>
       <c r="W48" s="32">
-        <f>_xlfn.IFS(O48="Grid Power", 2550, O48="Grid Power PLC", 3940, O48="5060 Hybrid TEG", 27903, O48="5060 TEG", 10479, O48="5120 TEG", 13874, O48="Solar", solar_array_cost*Q48)+(P48*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>3950</v>
       </c>
       <c r="X48" s="32">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
+      <c r="Y48" s="33">
+        <f t="shared" si="20"/>
+        <v>19730</v>
+      </c>
+      <c r="Z48" s="58">
+        <f t="shared" si="42"/>
+        <v>0.08</v>
+      </c>
+      <c r="AA48" s="33">
+        <f t="shared" si="21"/>
+        <v>1578.4</v>
+      </c>
+      <c r="AB48" s="34">
+        <f t="shared" si="31"/>
+        <v>364</v>
+      </c>
+      <c r="AC48" s="34">
+        <f t="shared" si="32"/>
+        <v>300</v>
+      </c>
+      <c r="AD48" s="34">
+        <f t="shared" si="33"/>
+        <v>120</v>
+      </c>
+      <c r="AE48" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF48" s="35">
         <f t="shared" si="23"/>
-        <v>5000</v>
-      </c>
-      <c r="Y48" s="33">
-        <f t="shared" si="11"/>
-        <v>19730</v>
-      </c>
-      <c r="Z48" s="58">
-        <f t="shared" si="24"/>
-        <v>0.08</v>
-      </c>
-      <c r="AA48" s="33">
-        <f t="shared" si="12"/>
-        <v>1578.4</v>
-      </c>
-      <c r="AB48" s="34">
-        <f t="shared" si="20"/>
-        <v>364</v>
-      </c>
-      <c r="AC48" s="34">
-        <f t="shared" si="21"/>
-        <v>300</v>
-      </c>
-      <c r="AD48" s="34">
-        <f>VLOOKUP(O48,power,3,FALSE)</f>
-        <v>120</v>
-      </c>
-      <c r="AE48" s="34">
+        <v>1864</v>
+      </c>
+      <c r="AG48" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF48" s="35">
-        <f t="shared" si="14"/>
-        <v>1864</v>
-      </c>
-      <c r="AG48" s="36">
-        <f t="shared" si="13"/>
         <v>3442.4</v>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
         <v>123</v>
       </c>
       <c r="J49" s="30" t="str">
-        <f>VLOOKUP(A49,om_table,23,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K49" s="30" t="str">
@@ -7789,87 +7789,87 @@
         <v>IS1001-MTS</v>
       </c>
       <c r="M49" s="80" t="str">
-        <f>VLOOKUP(A49,om_table,21,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N49" s="29">
-        <f>VLOOKUP(A49,om_table,30,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="O49" s="30" t="str">
-        <f>VLOOKUP(A49,om_table,9,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>5060 Hybrid TEG</v>
       </c>
       <c r="P49" s="29">
-        <f>VLOOKUP(A49,om_table,16,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="Q49" s="29">
-        <f>VLOOKUP(A49,om_table,17,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="R49" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2000</v>
       </c>
       <c r="S49" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T49" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4450</v>
       </c>
       <c r="U49" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>18756</v>
       </c>
       <c r="V49" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>26415</v>
       </c>
       <c r="W49" s="32">
-        <f>_xlfn.IFS(O49="Grid Power", 2550, O49="Grid Power PLC", 3940, O49="5060 Hybrid TEG", 27903, O49="5060 TEG", 10479, O49="5120 TEG", 13874, O49="Solar", solar_array_cost*Q49)+(P49*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>29303</v>
       </c>
       <c r="X49" s="32">
+        <f t="shared" si="41"/>
+        <v>12500</v>
+      </c>
+      <c r="Y49" s="33">
+        <f t="shared" si="20"/>
+        <v>94259</v>
+      </c>
+      <c r="Z49" s="58">
+        <f t="shared" si="42"/>
+        <v>0.08</v>
+      </c>
+      <c r="AA49" s="33">
+        <f t="shared" si="21"/>
+        <v>7540.72</v>
+      </c>
+      <c r="AB49" s="34">
+        <f t="shared" si="31"/>
+        <v>364</v>
+      </c>
+      <c r="AC49" s="34">
+        <f t="shared" si="32"/>
+        <v>1440</v>
+      </c>
+      <c r="AD49" s="34">
+        <f t="shared" si="33"/>
+        <v>780.19</v>
+      </c>
+      <c r="AE49" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF49" s="35">
         <f t="shared" si="23"/>
-        <v>12500</v>
-      </c>
-      <c r="Y49" s="33">
-        <f t="shared" si="11"/>
-        <v>94259</v>
-      </c>
-      <c r="Z49" s="58">
-        <f t="shared" si="24"/>
-        <v>0.08</v>
-      </c>
-      <c r="AA49" s="33">
-        <f t="shared" si="12"/>
-        <v>7540.72</v>
-      </c>
-      <c r="AB49" s="34">
-        <f t="shared" si="20"/>
-        <v>364</v>
-      </c>
-      <c r="AC49" s="34">
-        <f t="shared" si="21"/>
-        <v>1440</v>
-      </c>
-      <c r="AD49" s="34">
-        <f>VLOOKUP(O49,power,3,FALSE)</f>
-        <v>780.19</v>
-      </c>
-      <c r="AE49" s="34">
+        <v>3664.19</v>
+      </c>
+      <c r="AG49" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF49" s="35">
-        <f t="shared" si="14"/>
-        <v>3664.19</v>
-      </c>
-      <c r="AG49" s="36">
-        <f t="shared" si="13"/>
         <v>11204.91</v>
       </c>
     </row>
@@ -7902,7 +7902,7 @@
         <v>123</v>
       </c>
       <c r="J50" s="30" t="str">
-        <f>VLOOKUP(A50,om_table,23,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>Satellite Modem</v>
       </c>
       <c r="L50" s="30" t="str">
@@ -7910,87 +7910,87 @@
         <v>IS1001-MTS</v>
       </c>
       <c r="M50" s="80" t="str">
-        <f>VLOOKUP(A50,om_table,21,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>Biomark IS1001</v>
       </c>
       <c r="N50" s="29">
-        <f>VLOOKUP(A50,om_table,30,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="O50" s="30" t="str">
-        <f>VLOOKUP(A50,om_table,9,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>Grid Power</v>
       </c>
       <c r="P50" s="29">
-        <f>VLOOKUP(A50,om_table,16,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="Q50" s="29">
-        <f>VLOOKUP(A50,om_table,17,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R50" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2000</v>
       </c>
       <c r="S50" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T50" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4450</v>
       </c>
       <c r="U50" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>8336</v>
       </c>
       <c r="V50" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>11740</v>
       </c>
       <c r="W50" s="32">
-        <f>_xlfn.IFS(O50="Grid Power", 2550, O50="Grid Power PLC", 3940, O50="5060 Hybrid TEG", 27903, O50="5060 TEG", 10479, O50="5120 TEG", 13874, O50="Solar", solar_array_cost*Q50)+(P50*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>3950</v>
       </c>
       <c r="X50" s="32">
+        <f t="shared" si="41"/>
+        <v>12500</v>
+      </c>
+      <c r="Y50" s="33">
+        <f t="shared" si="20"/>
+        <v>42976</v>
+      </c>
+      <c r="Z50" s="58">
+        <f t="shared" si="42"/>
+        <v>0.08</v>
+      </c>
+      <c r="AA50" s="33">
+        <f t="shared" si="21"/>
+        <v>3438.08</v>
+      </c>
+      <c r="AB50" s="34">
+        <f t="shared" si="31"/>
+        <v>364</v>
+      </c>
+      <c r="AC50" s="34">
+        <f t="shared" si="32"/>
+        <v>1440</v>
+      </c>
+      <c r="AD50" s="34">
+        <f t="shared" si="33"/>
+        <v>120</v>
+      </c>
+      <c r="AE50" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF50" s="35">
         <f t="shared" si="23"/>
-        <v>12500</v>
-      </c>
-      <c r="Y50" s="33">
-        <f t="shared" si="11"/>
-        <v>42976</v>
-      </c>
-      <c r="Z50" s="58">
-        <f t="shared" si="24"/>
-        <v>0.08</v>
-      </c>
-      <c r="AA50" s="33">
-        <f t="shared" si="12"/>
-        <v>3438.08</v>
-      </c>
-      <c r="AB50" s="34">
-        <f t="shared" si="20"/>
-        <v>364</v>
-      </c>
-      <c r="AC50" s="34">
-        <f t="shared" si="21"/>
-        <v>1440</v>
-      </c>
-      <c r="AD50" s="34">
-        <f>VLOOKUP(O50,power,3,FALSE)</f>
-        <v>120</v>
-      </c>
-      <c r="AE50" s="34">
+        <v>3004</v>
+      </c>
+      <c r="AG50" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF50" s="35">
-        <f t="shared" si="14"/>
-        <v>3004</v>
-      </c>
-      <c r="AG50" s="36">
-        <f t="shared" si="13"/>
         <v>6442.08</v>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
         <v>123</v>
       </c>
       <c r="J51" s="30" t="str">
-        <f>VLOOKUP(A51,om_table,23,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K51" s="30" t="str">
@@ -8035,87 +8035,87 @@
         <v>FS1001M</v>
       </c>
       <c r="M51" s="80" t="str">
-        <f>VLOOKUP(A51,om_table,21,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N51" s="29">
-        <f>VLOOKUP(A51,om_table,30,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="O51" s="30" t="str">
-        <f>VLOOKUP(A51,om_table,9,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>5060 TEG</v>
       </c>
       <c r="P51" s="29">
-        <f>VLOOKUP(A51,om_table,16,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q51" s="29">
-        <f>VLOOKUP(A51,om_table,17,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R51" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2000</v>
       </c>
       <c r="S51" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T51" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>8500</v>
       </c>
       <c r="U51" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V51" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>11740</v>
       </c>
       <c r="W51" s="32">
-        <f>_xlfn.IFS(O51="Grid Power", 2550, O51="Grid Power PLC", 3940, O51="5060 Hybrid TEG", 27903, O51="5060 TEG", 10479, O51="5120 TEG", 13874, O51="Solar", solar_array_cost*Q51)+(P51*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>10479</v>
       </c>
       <c r="X51" s="32">
+        <f t="shared" si="41"/>
+        <v>12500</v>
+      </c>
+      <c r="Y51" s="33">
+        <f t="shared" si="20"/>
+        <v>46054</v>
+      </c>
+      <c r="Z51" s="58">
+        <f t="shared" si="42"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA51" s="33">
+        <f t="shared" si="21"/>
+        <v>4605.4000000000005</v>
+      </c>
+      <c r="AB51" s="34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="34">
+        <f t="shared" si="32"/>
+        <v>1440</v>
+      </c>
+      <c r="AD51" s="34">
+        <f t="shared" si="33"/>
+        <v>1560.38</v>
+      </c>
+      <c r="AE51" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF51" s="35">
         <f t="shared" si="23"/>
-        <v>12500</v>
-      </c>
-      <c r="Y51" s="33">
-        <f t="shared" si="11"/>
-        <v>46054</v>
-      </c>
-      <c r="Z51" s="58">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="AA51" s="33">
-        <f t="shared" si="12"/>
-        <v>4605.4000000000005</v>
-      </c>
-      <c r="AB51" s="34">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC51" s="34">
-        <f t="shared" si="21"/>
-        <v>1440</v>
-      </c>
-      <c r="AD51" s="34">
-        <f>VLOOKUP(O51,power,3,FALSE)</f>
-        <v>1560.38</v>
-      </c>
-      <c r="AE51" s="34">
+        <v>4080.38</v>
+      </c>
+      <c r="AG51" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF51" s="35">
-        <f t="shared" si="14"/>
-        <v>4080.38</v>
-      </c>
-      <c r="AG51" s="36">
-        <f t="shared" si="13"/>
         <v>8685.7800000000007</v>
       </c>
     </row>
@@ -8148,7 +8148,7 @@
         <v>123</v>
       </c>
       <c r="J52" s="30" t="str">
-        <f>VLOOKUP(A52,om_table,23,FALSE)</f>
+        <f t="shared" si="35"/>
         <v>Satellite Modem</v>
       </c>
       <c r="K52" s="30" t="str">
@@ -8160,87 +8160,87 @@
         <v>FS1001M</v>
       </c>
       <c r="M52" s="80" t="str">
-        <f>VLOOKUP(A52,om_table,21,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>Biomark MUX</v>
       </c>
       <c r="N52" s="29">
-        <f>VLOOKUP(A52,om_table,30,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="O52" s="30" t="str">
-        <f>VLOOKUP(A52,om_table,9,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>5060 TEG</v>
       </c>
       <c r="P52" s="29">
-        <f>VLOOKUP(A52,om_table,16,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q52" s="29">
-        <f>VLOOKUP(A52,om_table,17,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R52" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2000</v>
       </c>
       <c r="S52" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>835</v>
       </c>
       <c r="T52" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>8500</v>
       </c>
       <c r="U52" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V52" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>5870</v>
       </c>
       <c r="W52" s="32">
-        <f>_xlfn.IFS(O52="Grid Power", 2550, O52="Grid Power PLC", 3940, O52="5060 Hybrid TEG", 27903, O52="5060 TEG", 10479, O52="5120 TEG", 13874, O52="Solar", solar_array_cost*Q52)+(P52*battery_cost)</f>
+        <f t="shared" si="30"/>
         <v>10479</v>
       </c>
       <c r="X52" s="32">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
+      <c r="Y52" s="33">
+        <f t="shared" si="20"/>
+        <v>32684</v>
+      </c>
+      <c r="Z52" s="58">
+        <f t="shared" si="42"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA52" s="33">
+        <f t="shared" si="21"/>
+        <v>3268.4</v>
+      </c>
+      <c r="AB52" s="34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="34">
+        <f t="shared" si="32"/>
+        <v>1440</v>
+      </c>
+      <c r="AD52" s="34">
+        <f t="shared" si="33"/>
+        <v>1560.38</v>
+      </c>
+      <c r="AE52" s="34">
+        <f t="shared" si="34"/>
+        <v>1080</v>
+      </c>
+      <c r="AF52" s="35">
         <f t="shared" si="23"/>
-        <v>5000</v>
-      </c>
-      <c r="Y52" s="33">
-        <f t="shared" si="11"/>
-        <v>32684</v>
-      </c>
-      <c r="Z52" s="58">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="AA52" s="33">
-        <f t="shared" si="12"/>
-        <v>3268.4</v>
-      </c>
-      <c r="AB52" s="34">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC52" s="34">
-        <f t="shared" si="21"/>
-        <v>1440</v>
-      </c>
-      <c r="AD52" s="34">
-        <f>VLOOKUP(O52,power,3,FALSE)</f>
-        <v>1560.38</v>
-      </c>
-      <c r="AE52" s="34">
+        <v>4080.38</v>
+      </c>
+      <c r="AG52" s="36">
         <f t="shared" si="22"/>
-        <v>1080</v>
-      </c>
-      <c r="AF52" s="35">
-        <f t="shared" si="14"/>
-        <v>4080.38</v>
-      </c>
-      <c r="AG52" s="36">
-        <f t="shared" si="13"/>
         <v>7348.7800000000007</v>
       </c>
     </row>
@@ -8310,35 +8310,35 @@
         <v>109</v>
       </c>
       <c r="R56" s="32">
-        <f>SUMIFS(R$2:R$52,$D$2:$D$52,$Q56,R$2:R$52,"&lt;&gt;#N/A")</f>
+        <f t="shared" ref="R56:Y56" si="43">SUMIFS(R$2:R$52,$D$2:$D$52,$Q56,R$2:R$52,"&lt;&gt;#N/A")</f>
         <v>41194</v>
       </c>
       <c r="S56" s="32">
-        <f>SUMIFS(S$2:S$52,$D$2:$D$52,$Q56,S$2:S$52,"&lt;&gt;#N/A")</f>
+        <f t="shared" si="43"/>
         <v>19205</v>
       </c>
       <c r="T56" s="32">
-        <f>SUMIFS(T$2:T$52,$D$2:$D$52,$Q56,T$2:T$52,"&lt;&gt;#N/A")</f>
+        <f t="shared" si="43"/>
         <v>172400</v>
       </c>
       <c r="U56" s="32">
-        <f>SUMIFS(U$2:U$52,$D$2:$D$52,$Q56,U$2:U$52,"&lt;&gt;#N/A")</f>
+        <f t="shared" si="43"/>
         <v>206316</v>
       </c>
       <c r="V56" s="32">
-        <f>SUMIFS(V$2:V$52,$D$2:$D$52,$Q56,V$2:V$52,"&lt;&gt;#N/A")</f>
+        <f t="shared" si="43"/>
         <v>498950</v>
       </c>
       <c r="W56" s="32">
-        <f>SUMIFS(W$2:W$52,$D$2:$D$52,$Q56,W$2:W$52,"&lt;&gt;#N/A")</f>
+        <f t="shared" si="43"/>
         <v>330584</v>
       </c>
       <c r="X56" s="32">
-        <f>SUMIFS(X$2:X$52,$D$2:$D$52,$Q56,X$2:X$52,"&lt;&gt;#N/A")</f>
+        <f t="shared" si="43"/>
         <v>325000</v>
       </c>
       <c r="Y56" s="52">
-        <f>SUMIFS(Y$2:Y$52,$D$2:$D$52,$Q56,Y$2:Y$52,"&lt;&gt;#N/A")</f>
+        <f t="shared" si="43"/>
         <v>1593649</v>
       </c>
       <c r="Z56" s="52"/>
@@ -8355,19 +8355,19 @@
         <v>28020</v>
       </c>
       <c r="AD56" s="34">
-        <f t="shared" ref="AD56:AG56" si="25">SUMIFS(AD$2:AD$52,$D$2:$D$52,$Q56,AD$2:AD$52,"&lt;&gt;#N/A")</f>
+        <f t="shared" ref="AD56:AG56" si="44">SUMIFS(AD$2:AD$52,$D$2:$D$52,$Q56,AD$2:AD$52,"&lt;&gt;#N/A")</f>
         <v>23285.29</v>
       </c>
       <c r="AE56" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>28080</v>
       </c>
       <c r="AF56" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>89213.290000000008</v>
       </c>
       <c r="AG56" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>231460.94999999995</v>
       </c>
     </row>
@@ -8380,31 +8380,31 @@
         <v>13884</v>
       </c>
       <c r="S57" s="32">
-        <f t="shared" ref="R57:AG59" si="26">SUMIFS(S$2:S$52,$D$2:$D$52,$Q57,S$2:S$52,"&lt;&gt;#N/A")</f>
+        <f t="shared" ref="S57:AG59" si="45">SUMIFS(S$2:S$52,$D$2:$D$52,$Q57,S$2:S$52,"&lt;&gt;#N/A")</f>
         <v>8350</v>
       </c>
       <c r="T57" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>48550</v>
       </c>
       <c r="U57" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>185476</v>
       </c>
       <c r="V57" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>272955</v>
       </c>
       <c r="W57" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>70756</v>
       </c>
       <c r="X57" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>125000</v>
       </c>
       <c r="Y57" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>724971</v>
       </c>
       <c r="Z57" s="52"/>
@@ -8417,23 +8417,23 @@
         <v>2548</v>
       </c>
       <c r="AC57" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>9240</v>
       </c>
       <c r="AD57" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>6961.51</v>
       </c>
       <c r="AE57" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>10800</v>
       </c>
       <c r="AF57" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>29549.510000000002</v>
       </c>
       <c r="AG57" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>88277.689999999988</v>
       </c>
     </row>
@@ -8446,31 +8446,31 @@
         <v>2968</v>
       </c>
       <c r="S58" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>3340</v>
       </c>
       <c r="T58" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>17800</v>
       </c>
       <c r="U58" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>83360</v>
       </c>
       <c r="V58" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>117400</v>
       </c>
       <c r="W58" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>63801</v>
       </c>
       <c r="X58" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>50000</v>
       </c>
       <c r="Y58" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>338669</v>
       </c>
       <c r="Z58" s="52"/>
@@ -8479,27 +8479,27 @@
         <v>27093.52</v>
       </c>
       <c r="AB58" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>1456</v>
       </c>
       <c r="AC58" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>1200</v>
       </c>
       <c r="AD58" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>7141.6900000000005</v>
       </c>
       <c r="AE58" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>4320</v>
       </c>
       <c r="AF58" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>14117.69</v>
       </c>
       <c r="AG58" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>41211.21</v>
       </c>
     </row>
@@ -8512,31 +8512,31 @@
         <v>9710</v>
       </c>
       <c r="S59" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>5010</v>
       </c>
       <c r="T59" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>29950</v>
       </c>
       <c r="U59" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>35428</v>
       </c>
       <c r="V59" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>85115</v>
       </c>
       <c r="W59" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>87259</v>
       </c>
       <c r="X59" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>62500</v>
       </c>
       <c r="Y59" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>314972</v>
       </c>
       <c r="Z59" s="52"/>
@@ -8545,27 +8545,27 @@
         <v>27655.260000000002</v>
       </c>
       <c r="AB59" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>2366</v>
       </c>
       <c r="AC59" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>5820</v>
       </c>
       <c r="AD59" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>4260.9500000000007</v>
       </c>
       <c r="AE59" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>8640</v>
       </c>
       <c r="AF59" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>21086.95</v>
       </c>
       <c r="AG59" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="45"/>
         <v>48742.21</v>
       </c>
     </row>
@@ -8578,60 +8578,60 @@
         <v>50904</v>
       </c>
       <c r="S61" s="68">
-        <f t="shared" ref="S61:AG61" si="27">S56+S59</f>
+        <f t="shared" ref="S61:AG61" si="46">S56+S59</f>
         <v>24215</v>
       </c>
       <c r="T61" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>202350</v>
       </c>
       <c r="U61" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>241744</v>
       </c>
       <c r="V61" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>584065</v>
       </c>
       <c r="W61" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>417843</v>
       </c>
       <c r="X61" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>387500</v>
       </c>
       <c r="Y61" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>1908621</v>
       </c>
       <c r="Z61" s="69"/>
       <c r="AA61" s="69">
-        <f t="shared" ref="AA61" si="28">AA56+AA59</f>
+        <f t="shared" ref="AA61" si="47">AA56+AA59</f>
         <v>169902.92</v>
       </c>
       <c r="AB61" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>12194</v>
       </c>
       <c r="AC61" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>33840</v>
       </c>
       <c r="AD61" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>27546.240000000002</v>
       </c>
       <c r="AE61" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>36720</v>
       </c>
       <c r="AF61" s="71">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>110300.24</v>
       </c>
       <c r="AG61" s="72">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>280203.15999999997</v>
       </c>
     </row>
@@ -8644,60 +8644,60 @@
         <v>58046</v>
       </c>
       <c r="S62" s="68">
-        <f t="shared" ref="S62:AG62" si="29">SUM(S56:S58)</f>
+        <f t="shared" ref="S62:AG62" si="48">SUM(S56:S58)</f>
         <v>30895</v>
       </c>
       <c r="T62" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>238750</v>
       </c>
       <c r="U62" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>475152</v>
       </c>
       <c r="V62" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>889305</v>
       </c>
       <c r="W62" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>465141</v>
       </c>
       <c r="X62" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>500000</v>
       </c>
       <c r="Y62" s="69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>2657289</v>
       </c>
       <c r="Z62" s="69"/>
       <c r="AA62" s="69">
-        <f t="shared" ref="AA62" si="30">SUM(AA56:AA58)</f>
+        <f t="shared" ref="AA62" si="49">SUM(AA56:AA58)</f>
         <v>228069.36</v>
       </c>
       <c r="AB62" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>13832</v>
       </c>
       <c r="AC62" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>38460</v>
       </c>
       <c r="AD62" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>37388.490000000005</v>
       </c>
       <c r="AE62" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>43200</v>
       </c>
       <c r="AF62" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>132880.49000000002</v>
       </c>
       <c r="AG62" s="72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="48"/>
         <v>360949.85</v>
       </c>
     </row>
@@ -8710,60 +8710,60 @@
         <v>7142</v>
       </c>
       <c r="S63" s="68">
-        <f t="shared" ref="S63:AG63" si="31">S62-S61</f>
+        <f t="shared" ref="S63:AG63" si="50">S62-S61</f>
         <v>6680</v>
       </c>
       <c r="T63" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>36400</v>
       </c>
       <c r="U63" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>233408</v>
       </c>
       <c r="V63" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>305240</v>
       </c>
       <c r="W63" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>47298</v>
       </c>
       <c r="X63" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>112500</v>
       </c>
       <c r="Y63" s="69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>748668</v>
       </c>
       <c r="Z63" s="69"/>
       <c r="AA63" s="69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>58166.439999999973</v>
       </c>
       <c r="AB63" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>1638</v>
       </c>
       <c r="AC63" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>4620</v>
       </c>
       <c r="AD63" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>9842.2500000000036</v>
       </c>
       <c r="AE63" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>6480</v>
       </c>
       <c r="AF63" s="71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>22580.250000000015</v>
       </c>
       <c r="AG63" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>80746.69</v>
       </c>
     </row>
@@ -8776,60 +8776,60 @@
         <v>0.1403033160458903</v>
       </c>
       <c r="S64" s="73">
-        <f t="shared" ref="S64:AG64" si="32">S63/S61</f>
+        <f t="shared" ref="S64:AG64" si="51">S63/S61</f>
         <v>0.27586206896551724</v>
       </c>
       <c r="T64" s="73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.17988633555720288</v>
       </c>
       <c r="U64" s="73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.96551724137931039</v>
       </c>
       <c r="V64" s="73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.52261306532663321</v>
       </c>
       <c r="W64" s="73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.11319562610837085</v>
       </c>
       <c r="X64" s="73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.29032258064516131</v>
       </c>
       <c r="Y64" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.39225597957897351</v>
       </c>
       <c r="Z64" s="74"/>
       <c r="AA64" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.34235103198932643</v>
       </c>
       <c r="AB64" s="75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.13432835820895522</v>
       </c>
       <c r="AC64" s="75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.13652482269503546</v>
       </c>
       <c r="AD64" s="75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.35729921760646838</v>
       </c>
       <c r="AE64" s="75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="AF64" s="76">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.20471623633819849</v>
       </c>
       <c r="AG64" s="77">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>0.2881719463834741</v>
       </c>
     </row>
@@ -15226,8 +15226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A5A9D4-9867-414A-873E-D5C500015276}">
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E26:G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
